--- a/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_exchange_sends_to_own_ga/Oracle - e20 sends to own ga.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_exchange_sends_to_own_ga/Oracle - e20 sends to own ga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_an_energy_calculation\when_exchange_sends_to_own_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A964E703-856F-4C13-9E75-B037FEF3E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B83E544-0E9F-467D-A628-0E69ED7D220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="128">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -392,9 +392,6 @@
     <t>ga_brp_es</t>
   </si>
   <si>
-    <t>170000000000001000</t>
-  </si>
-  <si>
     <t>E17</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
   </si>
   <si>
     <t>glmp</t>
-  </si>
-  <si>
-    <t>180000000000001000</t>
   </si>
   <si>
     <t>E18</t>
@@ -495,6 +489,24 @@
   </si>
   <si>
     <t>2000000000000</t>
+  </si>
+  <si>
+    <t>200000000000000001</t>
+  </si>
+  <si>
+    <t>200000000000000003</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>170000001500001000</t>
+  </si>
+  <si>
+    <t>180000001500001000</t>
   </si>
 </sst>
 </file>
@@ -765,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -859,6 +871,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88:I88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1476,7 +1490,7 @@
     <col min="30" max="30" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="27.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="40" width="8.7265625" style="1" customWidth="1"/>
     <col min="41" max="16384" width="8.7265625" style="1"/>
@@ -1511,7 +1525,7 @@
         <v>77</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>8</v>
@@ -1558,7 +1572,7 @@
         <v>17</v>
       </c>
       <c r="AG1" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH1" s="30" t="s">
         <v>83</v>
@@ -1571,26 +1585,40 @@
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12">
+        <v>10.111000000000001</v>
+      </c>
       <c r="G2" s="12"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
-      <c r="J2" s="43" t="str">
+      <c r="J2" s="43">
         <f t="shared" ref="J2:J19" si="0">IF(C2="","",SUM(F2:I2))</f>
-        <v/>
-      </c>
-      <c r="K2" s="10"/>
+        <v>10.111000000000001</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="O2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="R2" s="24"/>
       <c r="S2" s="7" t="s">
         <v>35</v>
@@ -1636,42 +1664,55 @@
         <v>D01</v>
       </c>
       <c r="AH2" s="27" t="str" cm="1">
-        <f t="array" ref="AH2:AH3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn._xlws.FILTER(TableDay1[from_ga],TableDay1[from_ga] &lt;&gt; ""),_xlfn._xlws.FILTER(TableDay1[to_ga],TableDay1[to_ga] &lt;&gt; ""))))</f>
+        <f t="array" ref="AH2:AH5">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn._xlws.FILTER(TableDay1[from_ga],TableDay1[from_ga] &lt;&gt; ""),_xlfn._xlws.FILTER(TableDay1[to_ga],TableDay1[to_ga] &lt;&gt; ""))))</f>
         <v>800</v>
       </c>
       <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
+      <c r="AJ2" s="57" t="str" cm="1">
+        <f t="array" ref="AJ2:AJ5">_xlfn._xlws.FILTER(TableDay1[from_ga],TableDay1[from_ga] &lt;&gt; "")</f>
+        <v>800</v>
+      </c>
+      <c r="AK2" s="58" t="str" cm="1">
+        <f t="array" ref="AK2:AK5">_xlfn._xlws.FILTER(TableDay1[to_ga],TableDay1[to_ga] &lt;&gt; "")</f>
+        <v>801</v>
+      </c>
+      <c r="AL2" s="58" t="str" cm="1">
+        <f t="array" ref="AL2:AL16">_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[ga_id] &lt;&gt; "")</f>
+        <v>800</v>
+      </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12">
+        <v>10.356999999999999</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.356999999999999</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3" s="24"/>
       <c r="S3" s="7" t="s">
@@ -1712,30 +1753,58 @@
       </c>
       <c r="AG3" s="24"/>
       <c r="AH3" s="24" t="str">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
+      <c r="AJ3" s="24" t="str">
+        <v>800</v>
+      </c>
+      <c r="AK3" s="1" t="str">
+        <v>800</v>
+      </c>
+      <c r="AL3" s="1" t="str">
+        <v>802</v>
+      </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="43" t="str">
+      <c r="F4" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="I4" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="J4" s="43">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K4" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+      <c r="O4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="R4" s="24"/>
       <c r="S4" s="7" t="s">
         <v>28</v>
@@ -1770,16 +1839,26 @@
       </c>
       <c r="AF4" s="24"/>
       <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
+      <c r="AH4" s="24" t="str">
+        <v>803</v>
+      </c>
       <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
+      <c r="AJ4" s="24" t="str">
+        <v>803</v>
+      </c>
+      <c r="AK4" s="1" t="str">
+        <v>800</v>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12">
@@ -1793,19 +1872,19 @@
         <v>2.1589999999999998</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="7" t="s">
@@ -1839,19 +1918,29 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
+      <c r="AH5" s="24" t="str">
+        <v>804</v>
+      </c>
       <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
+      <c r="AJ5" s="24" t="str">
+        <v>804</v>
+      </c>
+      <c r="AK5" s="1" t="str">
+        <v>804</v>
+      </c>
+      <c r="AL5" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" s="12">
         <v>5</v>
@@ -1864,17 +1953,17 @@
         <v>5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -1884,23 +1973,23 @@
       </c>
       <c r="T6" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U6" s="42">
         <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="V6" s="42">
         <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W6" s="42">
         <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="X6" s="42">
         <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
@@ -1913,16 +2002,19 @@
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
       <c r="AJ6" s="24"/>
+      <c r="AL6" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="12">
         <v>8</v>
@@ -1935,17 +2027,17 @@
         <v>8</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
@@ -1984,16 +2076,19 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="24"/>
+      <c r="AL7" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="12">
         <v>0.80700000000000005</v>
@@ -2006,17 +2101,17 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -2038,16 +2133,19 @@
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
+      <c r="AL8" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C9" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="F9" s="12">
         <v>10</v>
@@ -2060,17 +2158,17 @@
         <v>10</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
@@ -2104,16 +2202,19 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="24"/>
       <c r="AJ9" s="24"/>
+      <c r="AL9" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C10" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="F10" s="12">
         <v>10</v>
@@ -2126,17 +2227,17 @@
         <v>10</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
@@ -2178,16 +2279,19 @@
       <c r="AH10" s="35"/>
       <c r="AI10" s="24"/>
       <c r="AJ10" s="24"/>
+      <c r="AL10" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C11" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="F11" s="12">
         <v>0.25</v>
@@ -2200,17 +2304,17 @@
         <v>0.25</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
@@ -2255,13 +2359,16 @@
       <c r="AH11" s="35"/>
       <c r="AI11" s="24"/>
       <c r="AJ11" s="24"/>
+      <c r="AL11" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C12" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="12">
@@ -2275,17 +2382,17 @@
         <v>6</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -2325,22 +2432,25 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="36"/>
       <c r="AE12" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF12" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="35"/>
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
+      <c r="AL12" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C13" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="12">
@@ -2354,17 +2464,17 @@
         <v>4</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
@@ -2413,13 +2523,16 @@
       </c>
       <c r="AG13" s="36"/>
       <c r="AH13" s="35"/>
+      <c r="AL13" s="1" t="str">
+        <v>800</v>
+      </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12">
@@ -2433,17 +2546,17 @@
         <v>2.0030000000000001</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -2491,7 +2604,9 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
+      <c r="AL14" s="2" t="str">
+        <v>800</v>
+      </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
@@ -2549,13 +2664,13 @@
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2566,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
@@ -2627,7 +2742,9 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
+      <c r="AL15" s="2" t="str">
+        <v>800</v>
+      </c>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
@@ -2685,14 +2802,12 @@
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.35">
       <c r="C16" s="13" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="41"/>
@@ -2702,19 +2817,19 @@
         <v>0</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
@@ -2761,7 +2876,9 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
+      <c r="AL16" s="2" t="str">
+        <v>800</v>
+      </c>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -3442,7 +3559,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H22" s="33" t="str">
-        <f t="shared" ref="H22:H45" ca="1" si="5">SUBSTITUTE(IF(E22="","",I22+J22+K22),",",".")</f>
+        <f ca="1">IF(E22="","",SUBSTITUTE(ROUND(I22+J22+K22,3),",","."))</f>
         <v>10</v>
       </c>
       <c r="I22" s="9">
@@ -3454,7 +3571,7 @@
         <v>10</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" ref="K22:K45" si="6">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
+        <f t="shared" ref="K22:K45" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="L22" s="2"/>
@@ -3572,7 +3689,7 @@
         <v>75</v>
       </c>
       <c r="E23" s="31" t="str">
-        <f t="shared" ref="E23:E45" si="7">IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
+        <f t="shared" ref="E23:E45" si="6">IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
         <v>800</v>
       </c>
       <c r="F23" s="31" t="str">
@@ -3584,8 +3701,8 @@
         <v>1100000000000</v>
       </c>
       <c r="H23" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
+        <v>0.71</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
@@ -3596,8 +3713,8 @@
         <v>0</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.71000000000000041</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3717,7 +3834,7 @@
         <v>76</v>
       </c>
       <c r="E24" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F24" s="31" t="str">
@@ -3729,8 +3846,8 @@
         <v>1100000000000</v>
       </c>
       <c r="H24" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.708</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
@@ -3741,8 +3858,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.70800000000000018</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3865,7 +3982,7 @@
         <v>77</v>
       </c>
       <c r="E25" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F25" s="31" t="str">
@@ -3877,8 +3994,8 @@
         <v>1100000000000</v>
       </c>
       <c r="H25" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.709</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
@@ -3889,8 +4006,8 @@
         <v>0</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.70900000000000096</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -4013,7 +4130,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F26" s="31" t="str">
@@ -4025,7 +4142,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H26" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.5</v>
       </c>
       <c r="I26" s="9">
@@ -4037,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L26" s="2"/>
@@ -4155,7 +4272,7 @@
         <v>75</v>
       </c>
       <c r="E27" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F27" s="31" t="str">
@@ -4167,7 +4284,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H27" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.5</v>
       </c>
       <c r="I27" s="9">
@@ -4179,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L27" s="2"/>
@@ -4306,7 +4423,7 @@
         <v>76</v>
       </c>
       <c r="E28" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F28" s="31" t="str">
@@ -4318,7 +4435,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H28" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.5</v>
       </c>
       <c r="I28" s="9">
@@ -4330,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L28" s="2"/>
@@ -4457,7 +4574,7 @@
         <v>77</v>
       </c>
       <c r="E29" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F29" s="31" t="str">
@@ -4469,7 +4586,7 @@
         <v>1100000000000</v>
       </c>
       <c r="H29" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.5</v>
       </c>
       <c r="I29" s="9">
@@ -4481,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L29" s="2"/>
@@ -4603,7 +4720,7 @@
         <v>74</v>
       </c>
       <c r="E30" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F30" s="31" t="str">
@@ -4615,7 +4732,7 @@
         <v>2200000000000</v>
       </c>
       <c r="H30" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.063</v>
       </c>
       <c r="I30" s="9">
@@ -4627,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="2"/>
@@ -4746,7 +4863,7 @@
         <v>75</v>
       </c>
       <c r="E31" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F31" s="31" t="str">
@@ -4758,7 +4875,7 @@
         <v>2200000000000</v>
       </c>
       <c r="H31" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.062</v>
       </c>
       <c r="I31" s="9">
@@ -4770,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L31" s="2"/>
@@ -4892,7 +5009,7 @@
         <v>76</v>
       </c>
       <c r="E32" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F32" s="31" t="str">
@@ -4904,7 +5021,7 @@
         <v>2200000000000</v>
       </c>
       <c r="H32" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.063</v>
       </c>
       <c r="I32" s="9">
@@ -4916,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32" s="2"/>
@@ -5038,7 +5155,7 @@
         <v>77</v>
       </c>
       <c r="E33" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="F33" s="31" t="str">
@@ -5050,7 +5167,7 @@
         <v>2200000000000</v>
       </c>
       <c r="H33" s="33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.062</v>
       </c>
       <c r="I33" s="9">
@@ -5062,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L33" s="2"/>
@@ -5184,7 +5301,7 @@
         <v>74</v>
       </c>
       <c r="E34" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F34" s="31" t="str">
@@ -5196,7 +5313,7 @@
         <v/>
       </c>
       <c r="H34" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(E34="","",SUBSTITUTE(ROUND(I34+J34+K34,3),",","."))</f>
         <v/>
       </c>
       <c r="I34" s="9">
@@ -5208,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="2"/>
@@ -5307,7 +5424,7 @@
         <v>75</v>
       </c>
       <c r="E35" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F35" s="31" t="str">
@@ -5319,7 +5436,7 @@
         <v/>
       </c>
       <c r="H35" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I35" s="9">
@@ -5331,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="2"/>
@@ -5441,7 +5558,7 @@
         <v>76</v>
       </c>
       <c r="E36" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F36" s="31" t="str">
@@ -5453,7 +5570,7 @@
         <v/>
       </c>
       <c r="H36" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I36" s="9">
@@ -5465,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36" s="2"/>
@@ -5577,7 +5694,7 @@
         <v>77</v>
       </c>
       <c r="E37" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F37" s="31" t="str">
@@ -5589,7 +5706,7 @@
         <v/>
       </c>
       <c r="H37" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I37" s="9">
@@ -5601,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="2"/>
@@ -5714,7 +5831,7 @@
         <v>74</v>
       </c>
       <c r="E38" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F38" s="31" t="str">
@@ -5726,7 +5843,7 @@
         <v/>
       </c>
       <c r="H38" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I38" s="9">
@@ -5738,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38" s="2"/>
@@ -5854,7 +5971,7 @@
         <v>75</v>
       </c>
       <c r="E39" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F39" s="31" t="str">
@@ -5866,7 +5983,7 @@
         <v/>
       </c>
       <c r="H39" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I39" s="9">
@@ -5878,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L39" s="2"/>
@@ -5994,7 +6111,7 @@
         <v>76</v>
       </c>
       <c r="E40" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F40" s="31" t="str">
@@ -6006,7 +6123,7 @@
         <v/>
       </c>
       <c r="H40" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I40" s="9">
@@ -6018,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L40" s="2"/>
@@ -6134,7 +6251,7 @@
         <v>77</v>
       </c>
       <c r="E41" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F41" s="31" t="str">
@@ -6146,7 +6263,7 @@
         <v/>
       </c>
       <c r="H41" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I41" s="9">
@@ -6158,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="2"/>
@@ -6268,7 +6385,7 @@
         <v>74</v>
       </c>
       <c r="E42" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F42" s="31" t="str">
@@ -6280,7 +6397,7 @@
         <v/>
       </c>
       <c r="H42" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I42" s="9">
@@ -6292,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L42" s="2"/>
@@ -6404,7 +6521,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F43" s="31" t="str">
@@ -6416,7 +6533,7 @@
         <v/>
       </c>
       <c r="H43" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I43" s="9">
@@ -6428,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L43" s="2"/>
@@ -6535,7 +6652,7 @@
         <v>76</v>
       </c>
       <c r="E44" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F44" s="31" t="str">
@@ -6547,7 +6664,7 @@
         <v/>
       </c>
       <c r="H44" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I44" s="9">
@@ -6559,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L44" s="2"/>
@@ -6669,7 +6786,7 @@
         <v>77</v>
       </c>
       <c r="E45" s="31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F45" s="31" t="str">
@@ -6681,7 +6798,7 @@
         <v/>
       </c>
       <c r="H45" s="33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I45" s="9">
@@ -6693,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L45" s="2"/>
@@ -7014,11 +7131,11 @@
       </c>
       <c r="H48" s="32">
         <f>powerIn1H_quarter1+powerIn15M_quarter1-powerOut1H_quarter1-powerOut15M_quarter1</f>
-        <v>-0.54</v>
+        <v>3.9720000000000004</v>
       </c>
       <c r="I48" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H48,3),",",".")</f>
-        <v>-0.54</v>
+        <v>3.972</v>
       </c>
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
@@ -7128,11 +7245,11 @@
       </c>
       <c r="H49" s="32">
         <f>powerIn1H_quarter2+powerIn15M_quarter2-powerOut1H_quarter2-powerOut15M_quarter2</f>
-        <v>-0.54</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="I49" s="27" t="str">
         <f t="shared" ref="I49:I51" si="13">SUBSTITUTE(ROUND(H49,3),",",".")</f>
-        <v>-0.54</v>
+        <v>3.973</v>
       </c>
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
@@ -7243,11 +7360,11 @@
       </c>
       <c r="H50" s="32">
         <f>powerIn1H_quarter3+powerIn15M_quarter3-powerOut1H_quarter3-powerOut15M_quarter3</f>
-        <v>-0.53900000000000003</v>
+        <v>3.9720000000000004</v>
       </c>
       <c r="I50" s="27" t="str">
         <f t="shared" si="13"/>
-        <v>-0.539</v>
+        <v>3.972</v>
       </c>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
@@ -7361,11 +7478,11 @@
       </c>
       <c r="H51" s="32">
         <f>powerIn1H_quarter4+powerIn15M_quarter4-powerOut1H_quarter4-powerOut15M_quarter4</f>
-        <v>-0.54</v>
+        <v>3.9720000000000004</v>
       </c>
       <c r="I51" s="27" t="str">
         <f t="shared" si="13"/>
-        <v>-0.54</v>
+        <v>3.972</v>
       </c>
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
@@ -7588,7 +7705,7 @@
       <c r="U53" s="24"/>
       <c r="V53" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[to_ga],$AD$2),3)</f>
-        <v>0</v>
+        <v>10.356999999999999</v>
       </c>
       <c r="W53" s="39" t="s">
         <v>49</v>
@@ -7596,11 +7713,11 @@
       <c r="X53" s="40"/>
       <c r="Y53" s="28">
         <f>ROUND(SUM(Y55:Y58),3)</f>
-        <v>0</v>
+        <v>10.356999999999999</v>
       </c>
       <c r="Z53" s="21">
         <f>SUM(Z55:Z58)</f>
-        <v>0</v>
+        <v>10.356</v>
       </c>
       <c r="AA53" s="24"/>
       <c r="AB53" s="2"/>
@@ -7703,7 +7820,7 @@
       </c>
       <c r="V54" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[to_ga],$AD$2)/4</f>
-        <v>0</v>
+        <v>2.5892499999999998</v>
       </c>
       <c r="W54" s="7" t="s">
         <v>45</v>
@@ -7817,20 +7934,20 @@
       </c>
       <c r="V55" s="19">
         <f>V$54</f>
-        <v>0</v>
+        <v>2.5892499999999998</v>
       </c>
       <c r="W55" s="19">
         <f>V55</f>
-        <v>0</v>
+        <v>2.5892499999999998</v>
       </c>
       <c r="X55" s="19"/>
       <c r="Y55" s="23">
         <f>ROUND(W55,3)</f>
-        <v>0</v>
+        <v>2.589</v>
       </c>
       <c r="Z55" s="23">
         <f>ROUND(V55,3)</f>
-        <v>0</v>
+        <v>2.589</v>
       </c>
       <c r="AA55" s="45"/>
       <c r="AB55" s="2"/>
@@ -7932,23 +8049,23 @@
       </c>
       <c r="V56" s="19">
         <f>V$54</f>
-        <v>0</v>
+        <v>2.5892499999999998</v>
       </c>
       <c r="W56" s="19">
         <f>X56+W55</f>
-        <v>0</v>
+        <v>2.5894999999999997</v>
       </c>
       <c r="X56" s="19">
         <f>V56-Y55</f>
-        <v>0</v>
+        <v>2.4999999999986144E-4</v>
       </c>
       <c r="Y56" s="23">
         <f t="shared" ref="Y56:Y58" si="16">ROUND(W56,3)</f>
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="Z56" s="23">
         <f>ROUND(V56,3)</f>
-        <v>0</v>
+        <v>2.589</v>
       </c>
       <c r="AA56" s="45"/>
       <c r="AB56" s="2"/>
@@ -8050,23 +8167,23 @@
       </c>
       <c r="V57" s="19">
         <f>V$54</f>
-        <v>0</v>
+        <v>2.5892499999999998</v>
       </c>
       <c r="W57" s="19">
         <f>X57+W56</f>
-        <v>0</v>
+        <v>2.5887499999999997</v>
       </c>
       <c r="X57" s="19">
         <f>V57-Y56</f>
-        <v>0</v>
+        <v>-7.5000000000002842E-4</v>
       </c>
       <c r="Y57" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.589</v>
       </c>
       <c r="Z57" s="23">
         <f>ROUND(V57,3)</f>
-        <v>0</v>
+        <v>2.589</v>
       </c>
       <c r="AA57" s="45"/>
       <c r="AB57" s="2"/>
@@ -8153,23 +8270,23 @@
       </c>
       <c r="V58" s="19">
         <f>V$54</f>
-        <v>0</v>
+        <v>2.5892499999999998</v>
       </c>
       <c r="W58" s="19">
         <f>X58+W57</f>
-        <v>0</v>
+        <v>2.5889999999999995</v>
       </c>
       <c r="X58" s="19">
         <f>V58-Y57</f>
-        <v>0</v>
+        <v>2.4999999999986144E-4</v>
       </c>
       <c r="Y58" s="23">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.589</v>
       </c>
       <c r="Z58" s="23">
         <f>ROUND(V58,3)</f>
-        <v>0</v>
+        <v>2.589</v>
       </c>
       <c r="AA58" s="45"/>
       <c r="AB58" s="2"/>
@@ -8263,7 +8380,7 @@
       <c r="U59" s="24"/>
       <c r="V59" s="28">
         <f>ROUND(SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800"),3)</f>
-        <v>2.1589999999999998</v>
+        <v>20.468</v>
       </c>
       <c r="W59" s="39" t="s">
         <v>49</v>
@@ -8271,11 +8388,11 @@
       <c r="X59" s="40"/>
       <c r="Y59" s="28">
         <f>ROUND(SUM(Y61:Y64),3)</f>
-        <v>2.1589999999999998</v>
+        <v>20.468</v>
       </c>
       <c r="Z59" s="21">
         <f>SUM(Z61:Z64)</f>
-        <v>2.16</v>
+        <v>20.468</v>
       </c>
       <c r="AA59" s="27"/>
       <c r="AB59" s="2"/>
@@ -8375,7 +8492,7 @@
       </c>
       <c r="V60" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800")/4</f>
-        <v>0.53974999999999995</v>
+        <v>5.117</v>
       </c>
       <c r="W60" s="7" t="s">
         <v>45</v>
@@ -8487,20 +8604,20 @@
       </c>
       <c r="V61" s="19">
         <f>V$60</f>
-        <v>0.53974999999999995</v>
+        <v>5.117</v>
       </c>
       <c r="W61" s="19">
         <f>V61</f>
-        <v>0.53974999999999995</v>
+        <v>5.117</v>
       </c>
       <c r="X61" s="19"/>
       <c r="Y61" s="23">
         <f>ROUND(W61,3)</f>
-        <v>0.54</v>
+        <v>5.117</v>
       </c>
       <c r="Z61" s="23">
         <f>ROUND(V61,3)</f>
-        <v>0.54</v>
+        <v>5.117</v>
       </c>
       <c r="AA61" s="45"/>
       <c r="AB61" s="2"/>
@@ -8600,23 +8717,23 @@
       </c>
       <c r="V62" s="19">
         <f>V$60</f>
-        <v>0.53974999999999995</v>
+        <v>5.117</v>
       </c>
       <c r="W62" s="19">
         <f>X62+W61</f>
-        <v>0.53949999999999987</v>
+        <v>5.117</v>
       </c>
       <c r="X62" s="19">
         <f>V62-Y61</f>
-        <v>-2.5000000000008349E-4</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="23">
         <f t="shared" ref="Y62:Y64" si="19">ROUND(W62,3)</f>
-        <v>0.54</v>
+        <v>5.117</v>
       </c>
       <c r="Z62" s="23">
         <f>ROUND(V62,3)</f>
-        <v>0.54</v>
+        <v>5.117</v>
       </c>
       <c r="AA62" s="45"/>
       <c r="AB62" s="2"/>
@@ -8716,23 +8833,23 @@
       </c>
       <c r="V63" s="19">
         <f>V$60</f>
-        <v>0.53974999999999995</v>
+        <v>5.117</v>
       </c>
       <c r="W63" s="19">
         <f>X63+W62</f>
-        <v>0.53924999999999979</v>
+        <v>5.117</v>
       </c>
       <c r="X63" s="19">
         <f>V63-Y62</f>
-        <v>-2.5000000000008349E-4</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="23">
         <f t="shared" si="19"/>
-        <v>0.53900000000000003</v>
+        <v>5.117</v>
       </c>
       <c r="Z63" s="23">
         <f>ROUND(V63,3)</f>
-        <v>0.54</v>
+        <v>5.117</v>
       </c>
       <c r="AA63" s="45"/>
       <c r="AB63" s="2"/>
@@ -8817,23 +8934,23 @@
       </c>
       <c r="V64" s="19">
         <f>V$60</f>
-        <v>0.53974999999999995</v>
+        <v>5.117</v>
       </c>
       <c r="W64" s="19">
         <f>X64+W63</f>
-        <v>0.5399999999999997</v>
+        <v>5.117</v>
       </c>
       <c r="X64" s="19">
         <f>V64-Y63</f>
-        <v>7.499999999999174E-4</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="23">
         <f t="shared" si="19"/>
-        <v>0.54</v>
+        <v>5.117</v>
       </c>
       <c r="Z64" s="23">
         <f>ROUND(V64,3)</f>
-        <v>0.54</v>
+        <v>5.117</v>
       </c>
       <c r="AA64" s="45"/>
       <c r="AB64" s="2"/>
@@ -9023,11 +9140,11 @@
       </c>
       <c r="H66" s="32">
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
-        <v>-12.804</v>
+        <v>-8.2920000000000016</v>
       </c>
       <c r="I66" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H66,3),",",".")</f>
-        <v>-12.804</v>
+        <v>-8.292</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -9135,11 +9252,11 @@
       </c>
       <c r="H67" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>-3.8029999999999999</v>
+        <v>0.71000000000000041</v>
       </c>
       <c r="I67" s="27" t="str">
         <f t="shared" ref="I67:I69" si="21">SUBSTITUTE(ROUND(H67,3),",",".")</f>
-        <v>-3.803</v>
+        <v>0.71</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -9248,11 +9365,11 @@
       </c>
       <c r="H68" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>-3.8030000000000004</v>
+        <v>0.70800000000000018</v>
       </c>
       <c r="I68" s="27" t="str">
         <f t="shared" si="21"/>
-        <v>-3.803</v>
+        <v>0.708</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
@@ -9364,11 +9481,11 @@
       </c>
       <c r="H69" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>-3.8029999999999999</v>
+        <v>0.70900000000000096</v>
       </c>
       <c r="I69" s="27" t="str">
         <f t="shared" si="21"/>
-        <v>-3.803</v>
+        <v>0.709</v>
       </c>
       <c r="J69" s="2"/>
       <c r="R69" s="24"/>
@@ -9675,11 +9792,11 @@
       </c>
       <c r="H72" s="32">
         <f>IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>0</v>
+        <v>0.70900000000000096</v>
       </c>
       <c r="I72" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H72,3),",",".")</f>
-        <v>0</v>
+        <v>0.709</v>
       </c>
       <c r="R72" s="24"/>
       <c r="S72" s="27"/>
@@ -9774,11 +9891,11 @@
       </c>
       <c r="H73" s="32">
         <f>IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>0</v>
+        <v>0.70800000000000018</v>
       </c>
       <c r="I73" s="27" t="str">
         <f t="shared" ref="I73:I75" si="23">SUBSTITUTE(ROUND(H73,3),",",".")</f>
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9866,11 +9983,11 @@
       </c>
       <c r="H74" s="32">
         <f>IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>0</v>
+        <v>0.71000000000000041</v>
       </c>
       <c r="I74" s="27" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10265,11 +10382,11 @@
       </c>
       <c r="H78" s="32">
         <f>IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
-        <v>3.8029999999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" s="27" t="str">
         <f>SUBSTITUTE(ROUND(H78,3),",",".")</f>
-        <v>3.803</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -10372,11 +10489,11 @@
       </c>
       <c r="H79" s="32">
         <f>IF(gridLoss1H_quarter3&lt;0,gridLoss1H_quarter3*-1,0)</f>
-        <v>3.8030000000000004</v>
+        <v>0</v>
       </c>
       <c r="I79" s="27" t="str">
         <f t="shared" ref="I79:I81" si="25">SUBSTITUTE(ROUND(H79,3),",",".")</f>
-        <v>3.803</v>
+        <v>0</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -10479,11 +10596,11 @@
       </c>
       <c r="H80" s="32">
         <f>IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
-        <v>3.8029999999999999</v>
+        <v>0</v>
       </c>
       <c r="I80" s="27" t="str">
         <f t="shared" si="25"/>
-        <v>3.803</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -10586,11 +10703,11 @@
       </c>
       <c r="H81" s="32">
         <f>IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
-        <v>12.804</v>
+        <v>8.2920000000000016</v>
       </c>
       <c r="I81" s="27" t="str">
         <f t="shared" si="25"/>
-        <v>12.804</v>
+        <v>8.292</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -10987,11 +11104,11 @@
       </c>
       <c r="H85" s="32">
         <f>netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
-        <v>4.7639999999999993</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="I85" s="27" t="str">
         <f t="shared" ref="I85:I87" si="27">SUBSTITUTE(ROUND(H85,3),",",".")</f>
-        <v>4.764</v>
+        <v>5.474</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -11095,11 +11212,11 @@
       </c>
       <c r="H86" s="32">
         <f>netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
-        <v>4.7640000000000002</v>
+        <v>5.4720000000000004</v>
       </c>
       <c r="I86" s="27" t="str">
         <f t="shared" si="27"/>
-        <v>4.764</v>
+        <v>5.472</v>
       </c>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
@@ -11113,16 +11230,16 @@
       </c>
       <c r="W86" s="6">
         <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$3))/4</f>
-        <v>-0.53974999999999995</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="X86" s="16">
         <f>W86</f>
-        <v>-0.53974999999999995</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="Y86" s="16"/>
       <c r="Z86" s="16">
         <f t="shared" ref="Z86:Z109" si="28">ROUND(X86, 3)</f>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
@@ -11208,11 +11325,11 @@
       </c>
       <c r="H87" s="32">
         <f>netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
-        <v>4.7639999999999993</v>
+        <v>5.4730000000000008</v>
       </c>
       <c r="I87" s="27" t="str">
         <f t="shared" si="27"/>
-        <v>4.764</v>
+        <v>5.473</v>
       </c>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
@@ -11226,19 +11343,19 @@
       </c>
       <c r="W87" s="16">
         <f>W$86</f>
-        <v>-0.53974999999999995</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="X87" s="16">
         <f>Y87+X86</f>
-        <v>-0.53949999999999987</v>
+        <v>-2.5275000000000003</v>
       </c>
       <c r="Y87" s="16">
         <f>W87-Z86</f>
-        <v>2.5000000000008349E-4</v>
+        <v>2.4999999999986144E-4</v>
       </c>
       <c r="Z87" s="16">
         <f t="shared" si="28"/>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
@@ -11328,19 +11445,19 @@
       </c>
       <c r="W88" s="16">
         <f>W$86</f>
-        <v>-0.53974999999999995</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="X88" s="16">
         <f>Y88+X87</f>
-        <v>-0.53924999999999979</v>
+        <v>-2.5272500000000004</v>
       </c>
       <c r="Y88" s="16">
         <f>W88-Z87</f>
-        <v>2.5000000000008349E-4</v>
+        <v>2.4999999999986144E-4</v>
       </c>
       <c r="Z88" s="16">
         <f t="shared" si="28"/>
-        <v>-0.53900000000000003</v>
+        <v>-2.5270000000000001</v>
       </c>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
@@ -11441,19 +11558,19 @@
       </c>
       <c r="W89" s="16">
         <f>W$86</f>
-        <v>-0.53974999999999995</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="X89" s="16">
         <f>Y89+X88</f>
-        <v>-0.5399999999999997</v>
+        <v>-2.5280000000000005</v>
       </c>
       <c r="Y89" s="16">
         <f>W89-Z88</f>
-        <v>-7.499999999999174E-4</v>
+        <v>-7.5000000000002842E-4</v>
       </c>
       <c r="Z89" s="16">
         <f t="shared" si="28"/>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
@@ -11541,15 +11658,15 @@
       </c>
       <c r="H90" s="32">
         <f ca="1">IF(E90="","",V86+Z86)</f>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="I90" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J90" s="27" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(ROUND(H90,3),",","."),"")</f>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
@@ -11558,7 +11675,7 @@
       </c>
       <c r="V90" s="26" cm="1">
         <f t="array" aca="1" ref="V90" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W90" s="6">
         <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$4)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$4))/4</f>
@@ -11659,15 +11776,15 @@
       </c>
       <c r="H91" s="32">
         <f t="shared" ref="H91:H113" ca="1" si="32">IF(E91="","",V87+Z87)</f>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="I91" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J91" s="27" t="str">
         <f t="shared" ref="J91:J113" ca="1" si="33">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="R91" s="2"/>
       <c r="U91" s="15" t="s">
@@ -11675,7 +11792,7 @@
       </c>
       <c r="V91" s="26" cm="1">
         <f t="array" aca="1" ref="V91" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W91" s="16">
         <f>W$90</f>
@@ -11779,22 +11896,22 @@
       </c>
       <c r="H92" s="32">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.53900000000000003</v>
+        <v>-2.5270000000000001</v>
       </c>
       <c r="I92" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J92" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.539</v>
+        <v>-2.527</v>
       </c>
       <c r="U92" s="15" t="s">
         <v>76</v>
       </c>
       <c r="V92" s="26" cm="1">
         <f t="array" aca="1" ref="V92" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W92" s="16">
         <f>W$90</f>
@@ -11898,22 +12015,22 @@
       </c>
       <c r="H93" s="32">
         <f t="shared" ca="1" si="32"/>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="I93" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J93" s="27" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>-0.54</v>
+        <v>-2.528</v>
       </c>
       <c r="U93" s="15" t="s">
         <v>77</v>
       </c>
       <c r="V93" s="26" cm="1">
         <f t="array" aca="1" ref="V93" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W93" s="16">
         <f>W$90</f>
@@ -12005,27 +12122,27 @@
       </c>
       <c r="E94" s="31" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F94" s="31" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>null</v>
       </c>
       <c r="G94" s="31" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H94" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H94" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>6.5</v>
       </c>
       <c r="I94" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <v>803</v>
       </c>
       <c r="J94" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="33"/>
+        <v>6.5</v>
       </c>
       <c r="U94" s="15" t="s">
         <v>74</v>
@@ -12035,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="6">
-        <f>SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$5)/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$5))/4</f>
         <v>0</v>
       </c>
       <c r="X94" s="16">
@@ -12121,27 +12238,27 @@
       </c>
       <c r="E95" s="31" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F95" s="31" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>null</v>
       </c>
       <c r="G95" s="31" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H95" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H95" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>6.5</v>
       </c>
       <c r="I95" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <v>803</v>
       </c>
       <c r="J95" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="33"/>
+        <v>6.5</v>
       </c>
       <c r="U95" s="15" t="s">
         <v>75</v>
@@ -12240,27 +12357,27 @@
       </c>
       <c r="E96" s="31" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F96" s="31" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>null</v>
       </c>
       <c r="G96" s="31" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H96" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H96" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>6.5</v>
       </c>
       <c r="I96" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <v>803</v>
       </c>
       <c r="J96" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="33"/>
+        <v>6.5</v>
       </c>
       <c r="U96" s="15" t="s">
         <v>76</v>
@@ -12359,27 +12476,27 @@
       </c>
       <c r="E97" s="31" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F97" s="31" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>null</v>
       </c>
       <c r="G97" s="31" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H97" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H97" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>6.5</v>
       </c>
       <c r="I97" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <v>803</v>
       </c>
       <c r="J97" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="33"/>
+        <v>6.5</v>
       </c>
       <c r="U97" s="15" t="s">
         <v>77</v>
@@ -12478,27 +12595,27 @@
       </c>
       <c r="E98" s="31" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F98" s="31" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>null</v>
       </c>
       <c r="G98" s="31" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H98" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H98" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>0</v>
       </c>
       <c r="I98" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <v>804</v>
       </c>
       <c r="J98" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="U98" s="15" t="s">
         <v>74</v>
@@ -12594,27 +12711,27 @@
       </c>
       <c r="E99" s="31" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F99" s="31" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>null</v>
       </c>
       <c r="G99" s="31" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H99" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H99" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>0</v>
       </c>
       <c r="I99" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <v>804</v>
       </c>
       <c r="J99" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="U99" s="15" t="s">
         <v>75</v>
@@ -12713,27 +12830,27 @@
       </c>
       <c r="E100" s="31" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F100" s="31" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>null</v>
       </c>
       <c r="G100" s="31" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H100" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H100" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>0</v>
       </c>
       <c r="I100" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <v>804</v>
       </c>
       <c r="J100" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="U100" s="15" t="s">
         <v>76</v>
@@ -12832,27 +12949,27 @@
       </c>
       <c r="E101" s="31" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="F101" s="31" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>null</v>
       </c>
       <c r="G101" s="31" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H101" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <v>null</v>
+      </c>
+      <c r="H101" s="32">
+        <f t="shared" ca="1" si="32"/>
+        <v>0</v>
       </c>
       <c r="I101" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
+        <v>804</v>
       </c>
       <c r="J101" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="U101" s="15" t="s">
         <v>77</v>
@@ -40816,23 +40933,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010083C51B3A6863BB4086AAB9D84DF721A3" ma:contentTypeVersion="9" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9d92303bd8f83ad3ed572bd327ba273d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17d0a144-7218-432a-80c1-1473a2ac0f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e272e23039cec0e41a69c8e3deb1ff81" ns3:_="">
     <xsd:import namespace="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
@@ -41008,31 +41108,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE2584E-1495-47FC-B560-4437F91C3A10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41048,4 +41141,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_exchange_sends_to_own_ga/Oracle - e20 sends to own ga.xlsx
+++ b/source/databricks/calculation_engine/tests/features/given_an_energy_calculation/when_exchange_sends_to_own_ga/Oracle - e20 sends to own ga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_an_energy_calculation\when_exchange_sends_to_own_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B83E544-0E9F-467D-A628-0E69ED7D220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B874A56F-84CE-49E2-891C-E4F7E31D20BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B26405EC-4681-4CC9-BF80-F87B3459AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour1" sheetId="11" r:id="rId1"/>
@@ -29,24 +29,6 @@
     <definedName name="netEx_quarter2" localSheetId="0">Hour1!$H$49</definedName>
     <definedName name="netEx_quarter3" localSheetId="0">Hour1!$H$50</definedName>
     <definedName name="netEx_quarter4" localSheetId="0">Hour1!$H$51</definedName>
-    <definedName name="powerIn15M" localSheetId="0">Hour1!$T$6</definedName>
-    <definedName name="powerIn15M_quarter1" localSheetId="0">Hour1!$U$6</definedName>
-    <definedName name="powerIn15M_quarter2" localSheetId="0">Hour1!$V$6</definedName>
-    <definedName name="powerIn15M_quarter3" localSheetId="0">Hour1!$W$6</definedName>
-    <definedName name="powerIn15M_quarter4" localSheetId="0">Hour1!$X$6</definedName>
-    <definedName name="powerIn1H_quarter1" localSheetId="0">Hour1!$Y$55</definedName>
-    <definedName name="powerIn1H_quarter2" localSheetId="0">Hour1!$Y$56</definedName>
-    <definedName name="powerIn1H_quarter3" localSheetId="0">Hour1!$Y$57</definedName>
-    <definedName name="powerIn1H_quarter4" localSheetId="0">Hour1!$Y$58</definedName>
-    <definedName name="powerOut15M" localSheetId="0">Hour1!$T$7</definedName>
-    <definedName name="powerOut15M_quarter1" localSheetId="0">Hour1!$U$7</definedName>
-    <definedName name="powerOut15M_quarter2" localSheetId="0">Hour1!$V$7</definedName>
-    <definedName name="powerOut15M_quarter3" localSheetId="0">Hour1!$W$7</definedName>
-    <definedName name="powerOut15M_quarter4" localSheetId="0">Hour1!$X$7</definedName>
-    <definedName name="powerOut1H_quarter1" localSheetId="0">Hour1!$Y$61</definedName>
-    <definedName name="powerOut1H_quarter2" localSheetId="0">Hour1!$Y$62</definedName>
-    <definedName name="powerOut1H_quarter3" localSheetId="0">Hour1!$Y$63</definedName>
-    <definedName name="powerOut1H_quarter4" localSheetId="0">Hour1!$Y$64</definedName>
     <definedName name="totalConsumption_quarter1" localSheetId="0">Hour1!$Y$67</definedName>
     <definedName name="totalConsumption_quarter2" localSheetId="0">Hour1!$Y$68</definedName>
     <definedName name="totalConsumption_quarter3" localSheetId="0">Hour1!$Y$69</definedName>
@@ -123,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="126">
   <si>
     <t>energy_supplier_id</t>
   </si>
@@ -218,9 +200,6 @@
     <t>el ind i ga (1H målepunkter)</t>
   </si>
   <si>
-    <t>el ind i ga (15M målepunkter)</t>
-  </si>
-  <si>
     <t>el ud af ga (1H målepunkter)</t>
   </si>
   <si>
@@ -249,9 +228,6 @@
   </si>
   <si>
     <t>negative_grid_loss</t>
-  </si>
-  <si>
-    <t>el ud af ga (15M målepunkter)</t>
   </si>
   <si>
     <t>Total flex consumtion 1H / 4</t>
@@ -1457,51 +1433,51 @@
   </sheetPr>
   <dimension ref="A1:CN400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.7265625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="8.7265625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="8.7109375" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:92" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>7</v>
@@ -1513,19 +1489,19 @@
         <v>12</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>8</v>
@@ -1543,22 +1519,22 @@
         <v>18</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="AA1" s="24"/>
       <c r="AC1" s="24"/>
@@ -1572,26 +1548,26 @@
         <v>17</v>
       </c>
       <c r="AG1" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AH1" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AI1" s="30"/>
       <c r="AJ1" s="24"/>
     </row>
-    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:92" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12">
@@ -1605,23 +1581,23 @@
         <v>10.111000000000001</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R2" s="24"/>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT15M")</f>
@@ -1648,7 +1624,7 @@
       <c r="AA2" s="24"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="27" t="str" cm="1">
-        <f t="array" ref="AD2:AD3">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[ga_id] &lt;&gt; "")))</f>
+        <f t="array" ref="AD2:AD4">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[ga_id] &lt;&gt; "")))</f>
         <v>800</v>
       </c>
       <c r="AE2" s="27" t="str" cm="1">
@@ -1663,30 +1639,18 @@
         <f>IF(B$2="production","E18",IF($B$2="flex_consumption","D01","E02"))</f>
         <v>D01</v>
       </c>
-      <c r="AH2" s="27" t="str" cm="1">
-        <f t="array" ref="AH2:AH5">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn._xlws.FILTER(TableDay1[from_ga],TableDay1[from_ga] &lt;&gt; ""),_xlfn._xlws.FILTER(TableDay1[to_ga],TableDay1[to_ga] &lt;&gt; ""))))</f>
-        <v>800</v>
-      </c>
+      <c r="AH2" s="27"/>
       <c r="AI2" s="24"/>
-      <c r="AJ2" s="57" t="str" cm="1">
-        <f t="array" ref="AJ2:AJ5">_xlfn._xlws.FILTER(TableDay1[from_ga],TableDay1[from_ga] &lt;&gt; "")</f>
-        <v>800</v>
-      </c>
-      <c r="AK2" s="58" t="str" cm="1">
-        <f t="array" ref="AK2:AK5">_xlfn._xlws.FILTER(TableDay1[to_ga],TableDay1[to_ga] &lt;&gt; "")</f>
-        <v>801</v>
-      </c>
-      <c r="AL2" s="58" t="str" cm="1">
-        <f t="array" ref="AL2:AL16">_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[ga_id] &lt;&gt; "")</f>
-        <v>800</v>
-      </c>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12">
@@ -1700,23 +1664,23 @@
         <v>10.356999999999999</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R3" s="24"/>
       <c r="S3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT15M")</f>
@@ -1752,26 +1716,28 @@
         <v>2200000000000</v>
       </c>
       <c r="AG3" s="24"/>
-      <c r="AH3" s="24" t="str">
-        <v>801</v>
-      </c>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24" t="str">
+      <c r="AH3" s="57" t="str" cm="1">
+        <f t="array" ref="AH3:AH5">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(IF(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga]=TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0)&gt;0,AD2,""),""))&lt;&gt;""))</f>
+        <v>803</v>
+      </c>
+      <c r="AI3" s="2" t="str" cm="1">
+        <f t="array" ref="AI3:AI5">_xlfn.UNIQUE(_xlfn._xlws.FILTER(_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),"")),_xlfn.VSTACK(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[from_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2)),_xlfn._xlws.FILTER(TableDay1[to_ga],(TableDay1[from_ga]=$AD$2)+(TableDay1[to_ga]=$AD$2))&lt;&gt;AD2),IFERROR(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2),_xlfn._xlws.FILTER(_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga]),_xlfn._xlws.FILTER(TableDay1[ga_id],TableDay1[from_ga] = TableDay1[to_ga])&lt;&gt;AD2)&lt;&gt;0),""))&lt;&gt;""))</f>
+        <v>803</v>
+      </c>
+      <c r="AJ3" s="57" t="str" cm="1">
+        <f t="array" ref="AJ3:AK5">_xlfn._xlws.SORT(AH3:AI5,1)</f>
         <v>800</v>
       </c>
       <c r="AK3" s="1" t="str">
-        <v>800</v>
-      </c>
-      <c r="AL3" s="1" t="str">
         <v>802</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12">
@@ -1791,19 +1757,19 @@
         <v>26</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R4" s="24"/>
       <c r="S4" s="7" t="s">
@@ -1833,32 +1799,33 @@
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
       <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
+      <c r="AD4" s="24" t="str">
+        <v>803</v>
+      </c>
       <c r="AE4" s="24" t="str">
         <v>3000000000000</v>
       </c>
       <c r="AF4" s="24"/>
       <c r="AG4" s="24"/>
       <c r="AH4" s="24" t="str">
-        <v>803</v>
-      </c>
-      <c r="AI4" s="24"/>
+        <v>801</v>
+      </c>
+      <c r="AI4" s="24" t="str">
+        <v>801</v>
+      </c>
       <c r="AJ4" s="24" t="str">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AK4" s="1" t="str">
-        <v>800</v>
-      </c>
-      <c r="AL4" s="1" t="str">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12">
@@ -1872,19 +1839,19 @@
         <v>2.1589999999999998</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="7" t="s">
@@ -1919,28 +1886,27 @@
       <c r="AF5" s="24"/>
       <c r="AG5" s="24"/>
       <c r="AH5" s="24" t="str">
-        <v>804</v>
-      </c>
-      <c r="AI5" s="24"/>
+        <v>800</v>
+      </c>
+      <c r="AI5" s="24" t="str">
+        <v>802</v>
+      </c>
       <c r="AJ5" s="24" t="str">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AK5" s="1" t="str">
-        <v>804</v>
-      </c>
-      <c r="AL5" s="1" t="str">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="12">
         <v>5</v>
@@ -1953,44 +1919,27 @@
         <v>5</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="24"/>
-      <c r="S6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="9">
-        <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>26</v>
-      </c>
-      <c r="U6" s="42">
-        <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>6.5</v>
-      </c>
-      <c r="V6" s="42">
-        <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>6.5</v>
-      </c>
-      <c r="W6" s="42">
-        <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>6.5</v>
-      </c>
-      <c r="X6" s="42">
-        <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[to_ga],"800")</f>
-        <v>6.5</v>
-      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
@@ -2002,19 +1951,16 @@
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
       <c r="AJ6" s="24"/>
-      <c r="AL6" s="1" t="str">
-        <v>800</v>
-      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="12">
         <v>8</v>
@@ -2027,44 +1973,27 @@
         <v>8</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="9">
-        <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="42">
-        <f>SUMIFS(TableDay1[Quarter1],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="42">
-        <f>SUMIFS(TableDay1[Quarter2],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="42">
-        <f>SUMIFS(TableDay1[Quarter3],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="42">
-        <f>SUMIFS(TableDay1[Quarter4],TableDay1[type],"E20",TableDay1[resolution],"PT15M",TableDay1[from_ga],"800")</f>
-        <v>0</v>
-      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
@@ -2076,19 +2005,16 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="24"/>
-      <c r="AL7" s="1" t="str">
-        <v>800</v>
-      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="12">
         <v>0.80700000000000005</v>
@@ -2101,17 +2027,17 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -2133,19 +2059,16 @@
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
-      <c r="AL8" s="1" t="str">
-        <v>800</v>
-      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="12">
         <v>10</v>
@@ -2158,17 +2081,17 @@
         <v>10</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
@@ -2181,16 +2104,16 @@
         <v>9</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Z9" s="27"/>
       <c r="AA9" s="24"/>
@@ -2202,19 +2125,16 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="24"/>
       <c r="AJ9" s="24"/>
-      <c r="AL9" s="1" t="str">
-        <v>800</v>
-      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="12">
         <v>10</v>
@@ -2227,22 +2147,22 @@
         <v>10</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S10" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U10,TableDay1[es_id],0)),"")</f>
@@ -2279,19 +2199,16 @@
       <c r="AH10" s="35"/>
       <c r="AI10" s="24"/>
       <c r="AJ10" s="24"/>
-      <c r="AL10" s="1" t="str">
-        <v>800</v>
-      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="12">
         <v>0.25</v>
@@ -2304,22 +2221,22 @@
         <v>0.25</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S11" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U11,TableDay1[es_id],0)),"")</f>
@@ -2359,16 +2276,13 @@
       <c r="AH11" s="35"/>
       <c r="AI11" s="24"/>
       <c r="AJ11" s="24"/>
-      <c r="AL11" s="1" t="str">
-        <v>800</v>
-      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="12">
@@ -2382,22 +2296,22 @@
         <v>6</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S12" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U12,TableDay1[es_id],0)),"")</f>
@@ -2432,25 +2346,22 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="36"/>
       <c r="AE12" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF12" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG12" s="36"/>
       <c r="AH12" s="35"/>
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
-      <c r="AL12" s="1" t="str">
-        <v>800</v>
-      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="12">
@@ -2464,22 +2375,22 @@
         <v>4</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S13" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U13,TableDay1[es_id],0)),"")</f>
@@ -2523,16 +2434,13 @@
       </c>
       <c r="AG13" s="36"/>
       <c r="AH13" s="35"/>
-      <c r="AL13" s="1" t="str">
-        <v>800</v>
-      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12">
@@ -2546,22 +2454,22 @@
         <v>2.0030000000000001</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S14" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U14,TableDay1[es_id],0)),"")</f>
@@ -2604,9 +2512,7 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="2" t="str">
-        <v>800</v>
-      </c>
+      <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
@@ -2662,15 +2568,15 @@
       <c r="CM14" s="2"/>
       <c r="CN14" s="2"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2681,24 +2587,24 @@
         <v>0</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S15" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U15,TableDay1[es_id],0)),"")</f>
@@ -2742,9 +2648,7 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2" t="str">
-        <v>800</v>
-      </c>
+      <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
@@ -2800,12 +2704,12 @@
       <c r="CM15" s="2"/>
       <c r="CN15" s="2"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
@@ -2817,24 +2721,24 @@
         <v>0</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S16" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U16,TableDay1[es_id],0)),"")</f>
@@ -2876,9 +2780,7 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2" t="str">
-        <v>800</v>
-      </c>
+      <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
@@ -2934,7 +2836,7 @@
       <c r="CM16" s="2"/>
       <c r="CN16" s="2"/>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -2954,7 +2856,7 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S17" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U17,TableDay1[es_id],0)),"")</f>
@@ -3052,7 +2954,7 @@
       <c r="CM17" s="2"/>
       <c r="CN17" s="2"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3072,7 +2974,7 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S18" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U18,TableDay1[es_id],0)),"")</f>
@@ -3167,7 +3069,7 @@
       <c r="CM18" s="2"/>
       <c r="CN18" s="2"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
@@ -3187,7 +3089,7 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S19" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U19,TableDay1[es_id],0)),"")</f>
@@ -3285,7 +3187,7 @@
       <c r="CM19" s="2"/>
       <c r="CN19" s="2"/>
     </row>
-    <row r="20" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E20" s="47" t="str">
         <f>CONCATENATE(B2,"_per_",B1)</f>
         <v>flex_consumption_per_ga_brp_es</v>
@@ -3299,7 +3201,7 @@
       <c r="J20" s="49"/>
       <c r="K20" s="50"/>
       <c r="R20" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S20" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U20,TableDay1[es_id],0)),"")</f>
@@ -3397,7 +3299,7 @@
       <c r="CM20" s="2"/>
       <c r="CN20" s="2"/>
     </row>
-    <row r="21" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3426,7 +3328,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3435,7 +3337,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S21" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U21,TableDay1[es_id],0)),"")</f>
@@ -3533,7 +3435,7 @@
       <c r="CM21" s="2"/>
       <c r="CN21" s="2"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="str">
         <f>IF(AND(F22&lt;&gt;"null",F22&lt;&gt;""),IF(F22=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G22&lt;&gt;"null",G22&lt;&gt;""),IF(G22=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E22=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
@@ -3544,7 +3446,7 @@
         <v/>
       </c>
       <c r="D22" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="31" t="str">
         <f>IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
@@ -3571,7 +3473,7 @@
         <v>10</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" ref="K22:K45" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
+        <f t="shared" ref="K22:K45" ca="1" si="5">IF(AND(C22="skmp",B$2="production"),VLOOKUP(D22,D$78:H$81,5,FALSE),IF(AND(B22="glmp",B$2="flex_consumption"),VLOOKUP(D22,D$72:H$75,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="L22" s="2"/>
@@ -3581,7 +3483,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S22" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U22,TableDay1[es_id],0)),"")</f>
@@ -3676,7 +3578,7 @@
       <c r="CM22" s="2"/>
       <c r="CN22" s="2"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="str">
         <f>IF(AND(F23&lt;&gt;"null",F23&lt;&gt;""),IF(F23=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G23&lt;&gt;"null",G23&lt;&gt;""),IF(G23=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E23=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3686,7 +3588,7 @@
         <v/>
       </c>
       <c r="D23" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="31" t="str">
         <f t="shared" ref="E23:E45" si="6">IF(B$1="ga",IF(AND(ROW()&gt;21,ROW()&lt;26),$AD$2,""),IF(OR(B$1="ga_es",B$1="ga_brp_es"),IF(AND(ROW()&lt;22+(COUNTA(AE$2:AE$11)*4),ROW()&gt;21),$AD$2,""),IF(B$1="ga_brp",IF(AND(ROW()&lt;22+(COUNTA(AF$2:AF$11)*4),ROW()&gt;21),$AD$2,""))))</f>
@@ -3702,7 +3604,7 @@
       </c>
       <c r="H23" s="33" t="str">
         <f t="shared" ref="H23:H45" ca="1" si="7">IF(E23="","",SUBSTITUTE(ROUND(I23+J23+K23,3),",","."))</f>
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:I45" si="8">SUMIFS(Y$10:Y$33,IF(OR(B$1="ga_es",B$1="ga_brp_es"),U$10:U$33,IF(B$1="ga_brp",T$10:T$33,S$10:S$33)),IF(OR(B$1="ga_es",B$1="ga_brp_es"),F23,IF(B$1="ga_brp",G23,E23)),R$10:R$33,D23)</f>
@@ -3713,8 +3615,8 @@
         <v>0</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="5"/>
-        <v>0.71000000000000041</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.70900000000000007</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -3723,7 +3625,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S23" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U23,TableDay1[es_id],0)),"")</f>
@@ -3821,7 +3723,7 @@
       <c r="CM23" s="2"/>
       <c r="CN23" s="2"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="str">
         <f>IF(AND(F24&lt;&gt;"null",F24&lt;&gt;""),IF(F24=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G24&lt;&gt;"null",G24&lt;&gt;""),IF(G24=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E24=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3831,7 +3733,7 @@
         <v/>
       </c>
       <c r="D24" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="31" t="str">
         <f t="shared" si="6"/>
@@ -3847,7 +3749,7 @@
       </c>
       <c r="H24" s="33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0.708</v>
+        <v>0.709</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
@@ -3858,8 +3760,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="5"/>
-        <v>0.70800000000000018</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.70899999999999963</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3868,7 +3770,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S24" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U24,TableDay1[es_id],0)),"")</f>
@@ -3969,7 +3871,7 @@
       <c r="CM24" s="2"/>
       <c r="CN24" s="2"/>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="str">
         <f>IF(AND(F25&lt;&gt;"null",F25&lt;&gt;""),IF(F25=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G25&lt;&gt;"null",G25&lt;&gt;""),IF(G25=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E25=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v>glmp</v>
@@ -3979,7 +3881,7 @@
         <v/>
       </c>
       <c r="D25" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" s="31" t="str">
         <f t="shared" si="6"/>
@@ -4006,8 +3908,8 @@
         <v>0</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="5"/>
-        <v>0.70900000000000096</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.70900000000000007</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="2"/>
@@ -4016,7 +3918,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S25" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U25,TableDay1[es_id],0)),"")</f>
@@ -4117,7 +4019,7 @@
       <c r="CM25" s="2"/>
       <c r="CN25" s="2"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="str">
         <f>IF(AND(F26&lt;&gt;"null",F26&lt;&gt;""),IF(F26=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G26&lt;&gt;"null",G26&lt;&gt;""),IF(G26=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E26=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4127,7 +4029,7 @@
         <v/>
       </c>
       <c r="D26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="31" t="str">
         <f t="shared" si="6"/>
@@ -4164,7 +4066,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S26" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U26,TableDay1[es_id],0)),"")</f>
@@ -4259,7 +4161,7 @@
       <c r="CM26" s="2"/>
       <c r="CN26" s="2"/>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="str">
         <f>IF(AND(F27&lt;&gt;"null",F27&lt;&gt;""),IF(F27=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G27&lt;&gt;"null",G27&lt;&gt;""),IF(G27=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E27=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4269,7 +4171,7 @@
         <v/>
       </c>
       <c r="D27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="31" t="str">
         <f t="shared" si="6"/>
@@ -4306,7 +4208,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S27" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U27,TableDay1[es_id],0)),"")</f>
@@ -4410,7 +4312,7 @@
       <c r="CM27" s="2"/>
       <c r="CN27" s="2"/>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="str">
         <f>IF(AND(F28&lt;&gt;"null",F28&lt;&gt;""),IF(F28=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G28&lt;&gt;"null",G28&lt;&gt;""),IF(G28=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E28=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4420,7 +4322,7 @@
         <v/>
       </c>
       <c r="D28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="31" t="str">
         <f t="shared" si="6"/>
@@ -4457,7 +4359,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S28" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U28,TableDay1[es_id],0)),"")</f>
@@ -4561,7 +4463,7 @@
       <c r="CM28" s="2"/>
       <c r="CN28" s="2"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="str">
         <f>IF(AND(F29&lt;&gt;"null",F29&lt;&gt;""),IF(F29=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G29&lt;&gt;"null",G29&lt;&gt;""),IF(G29=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E29=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4571,7 +4473,7 @@
         <v/>
       </c>
       <c r="D29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="31" t="str">
         <f t="shared" si="6"/>
@@ -4603,7 +4505,7 @@
       </c>
       <c r="L29" s="2"/>
       <c r="R29" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S29" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U29,TableDay1[es_id],0)),"")</f>
@@ -4707,7 +4609,7 @@
       <c r="CM29" s="2"/>
       <c r="CN29" s="2"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="str">
         <f>IF(AND(F30&lt;&gt;"null",F30&lt;&gt;""),IF(F30=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G30&lt;&gt;"null",G30&lt;&gt;""),IF(G30=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E30=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4717,7 +4619,7 @@
         <v>skmp</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="31" t="str">
         <f t="shared" si="6"/>
@@ -4749,7 +4651,7 @@
       </c>
       <c r="L30" s="2"/>
       <c r="R30" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S30" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U30,TableDay1[es_id],0)),"")</f>
@@ -4850,7 +4752,7 @@
       <c r="CM30" s="2"/>
       <c r="CN30" s="2"/>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="str">
         <f>IF(AND(F31&lt;&gt;"null",F31&lt;&gt;""),IF(F31=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G31&lt;&gt;"null",G31&lt;&gt;""),IF(G31=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E31=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -4860,7 +4762,7 @@
         <v>skmp</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="31" t="str">
         <f t="shared" si="6"/>
@@ -4892,7 +4794,7 @@
       </c>
       <c r="L31" s="2"/>
       <c r="R31" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S31" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U31,TableDay1[es_id],0)),"")</f>
@@ -4996,7 +4898,7 @@
       <c r="CM31" s="2"/>
       <c r="CN31" s="2"/>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="str">
         <f>IF(AND(F32&lt;&gt;"null",F32&lt;&gt;""),IF(F32=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G32&lt;&gt;"null",G32&lt;&gt;""),IF(G32=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E32=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5006,7 +4908,7 @@
         <v>skmp</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5038,7 +4940,7 @@
       </c>
       <c r="L32" s="2"/>
       <c r="R32" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S32" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U32,TableDay1[es_id],0)),"")</f>
@@ -5142,7 +5044,7 @@
       <c r="CM32" s="2"/>
       <c r="CN32" s="2"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="str">
         <f>IF(AND(F33&lt;&gt;"null",F33&lt;&gt;""),IF(F33=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G33&lt;&gt;"null",G33&lt;&gt;""),IF(G33=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E33=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5152,7 +5054,7 @@
         <v>skmp</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5184,7 +5086,7 @@
       </c>
       <c r="L33" s="2"/>
       <c r="R33" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S33" s="26" t="str">
         <f>_xlfn.IFNA(INDEX(TableDay1[ga_id],MATCH(U33,TableDay1[es_id],0)),"")</f>
@@ -5288,7 +5190,7 @@
       <c r="CM33" s="2"/>
       <c r="CN33" s="2"/>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="str">
         <f>IF(AND(F34&lt;&gt;"null",F34&lt;&gt;""),IF(F34=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G34&lt;&gt;"null",G34&lt;&gt;""),IF(G34=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E34=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5298,7 +5200,7 @@
         <v/>
       </c>
       <c r="D34" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5411,7 +5313,7 @@
       <c r="CM34" s="2"/>
       <c r="CN34" s="2"/>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="str">
         <f>IF(AND(F35&lt;&gt;"null",F35&lt;&gt;""),IF(F35=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G35&lt;&gt;"null",G35&lt;&gt;""),IF(G35=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E35=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5421,7 +5323,7 @@
         <v/>
       </c>
       <c r="D35" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5461,7 +5363,7 @@
         <v>10.25</v>
       </c>
       <c r="W35" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="28">
@@ -5545,7 +5447,7 @@
       <c r="CM35" s="2"/>
       <c r="CN35" s="2"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="str">
         <f>IF(AND(F36&lt;&gt;"null",F36&lt;&gt;""),IF(F36=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G36&lt;&gt;"null",G36&lt;&gt;""),IF(G36=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E36=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5555,7 +5457,7 @@
         <v/>
       </c>
       <c r="D36" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5590,23 +5492,23 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V36" s="20">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"D01",TableDay1[resolution],"PT1H")/4</f>
         <v>2.5625</v>
       </c>
       <c r="W36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X36" s="7" t="s">
+      <c r="Z36" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z36" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA36" s="27"/>
       <c r="AB36" s="2"/>
@@ -5681,7 +5583,7 @@
       <c r="CM36" s="2"/>
       <c r="CN36" s="2"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="str">
         <f>IF(AND(F37&lt;&gt;"null",F37&lt;&gt;""),IF(F37=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G37&lt;&gt;"null",G37&lt;&gt;""),IF(G37=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E37=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5691,7 +5593,7 @@
         <v/>
       </c>
       <c r="D37" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5726,7 +5628,7 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
       <c r="U37" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V37" s="19">
         <f>V$36</f>
@@ -5818,7 +5720,7 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
     </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="str">
         <f>IF(AND(F38&lt;&gt;"null",F38&lt;&gt;""),IF(F38=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G38&lt;&gt;"null",G38&lt;&gt;""),IF(G38=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E38=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5828,7 +5730,7 @@
         <v/>
       </c>
       <c r="D38" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" s="31" t="str">
         <f t="shared" si="6"/>
@@ -5863,7 +5765,7 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V38" s="19">
         <f>V$36</f>
@@ -5958,7 +5860,7 @@
       <c r="CM38" s="2"/>
       <c r="CN38" s="2"/>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="str">
         <f>IF(AND(F39&lt;&gt;"null",F39&lt;&gt;""),IF(F39=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G39&lt;&gt;"null",G39&lt;&gt;""),IF(G39=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E39=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -5968,7 +5870,7 @@
         <v/>
       </c>
       <c r="D39" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E39" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6003,7 +5905,7 @@
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
       <c r="U39" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V39" s="19">
         <f>V$36</f>
@@ -6098,7 +6000,7 @@
       <c r="CM39" s="2"/>
       <c r="CN39" s="2"/>
     </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="str">
         <f>IF(AND(F40&lt;&gt;"null",F40&lt;&gt;""),IF(F40=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G40&lt;&gt;"null",G40&lt;&gt;""),IF(G40=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E40=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6108,7 +6010,7 @@
         <v/>
       </c>
       <c r="D40" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E40" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6143,7 +6045,7 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V40" s="19">
         <f>V$36</f>
@@ -6238,7 +6140,7 @@
       <c r="CM40" s="2"/>
       <c r="CN40" s="2"/>
     </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="str">
         <f>IF(AND(F41&lt;&gt;"null",F41&lt;&gt;""),IF(F41=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G41&lt;&gt;"null",G41&lt;&gt;""),IF(G41=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E41=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6248,7 +6150,7 @@
         <v/>
       </c>
       <c r="D41" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6288,7 +6190,7 @@
         <v>6.0030000000000001</v>
       </c>
       <c r="W41" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X41" s="40"/>
       <c r="Y41" s="28">
@@ -6372,7 +6274,7 @@
       <c r="CM41" s="2"/>
       <c r="CN41" s="2"/>
     </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="str">
         <f>IF(AND(F42&lt;&gt;"null",F42&lt;&gt;""),IF(F42=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G42&lt;&gt;"null",G42&lt;&gt;""),IF(G42=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E42=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6382,7 +6284,7 @@
         <v/>
       </c>
       <c r="D42" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6424,16 +6326,16 @@
         <v>1.50075</v>
       </c>
       <c r="W42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="Z42" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z42" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA42" s="27"/>
       <c r="AB42" s="2"/>
@@ -6508,7 +6410,7 @@
       <c r="CM42" s="2"/>
       <c r="CN42" s="2"/>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="str">
         <f>IF(AND(F43&lt;&gt;"null",F43&lt;&gt;""),IF(F43=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G43&lt;&gt;"null",G43&lt;&gt;""),IF(G43=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E43=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6518,7 +6420,7 @@
         <v/>
       </c>
       <c r="D43" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E43" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6553,7 +6455,7 @@
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
       <c r="U43" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V43" s="19">
         <f>V$42</f>
@@ -6639,7 +6541,7 @@
       <c r="CM43" s="2"/>
       <c r="CN43" s="2"/>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="str">
         <f>IF(AND(F44&lt;&gt;"null",F44&lt;&gt;""),IF(F44=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G44&lt;&gt;"null",G44&lt;&gt;""),IF(G44=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E44=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6649,7 +6551,7 @@
         <v/>
       </c>
       <c r="D44" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E44" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6684,7 +6586,7 @@
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V44" s="19">
         <f>V$42</f>
@@ -6773,7 +6675,7 @@
       <c r="CM44" s="2"/>
       <c r="CN44" s="2"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="str">
         <f>IF(AND(F45&lt;&gt;"null",F45&lt;&gt;""),IF(F45=INDEX(TableDay1[es_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(AND(G45&lt;&gt;"null",G45&lt;&gt;""),IF(G45=INDEX(TableDay1[brp_id],MATCH("GLMP",TableDay1[note],0),1),"glmp",""),IF(E45=INDEX(TableDay1[ga_id],MATCH("GLMP",TableDay1[note],0),1),"glmp","")))</f>
         <v/>
@@ -6783,7 +6685,7 @@
         <v/>
       </c>
       <c r="D45" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E45" s="31" t="str">
         <f t="shared" si="6"/>
@@ -6818,7 +6720,7 @@
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V45" s="19">
         <f>V$42</f>
@@ -6907,10 +6809,10 @@
       <c r="CM45" s="2"/>
       <c r="CN45" s="2"/>
     </row>
-    <row r="46" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C46" s="2"/>
       <c r="E46" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
@@ -6919,7 +6821,7 @@
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
       <c r="U46" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V46" s="19">
         <f>V$42</f>
@@ -7008,7 +6910,7 @@
       <c r="CM46" s="2"/>
       <c r="CN46" s="2"/>
     </row>
-    <row r="47" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
         <v>20</v>
@@ -7034,7 +6936,7 @@
         <v>8.8070000000000004</v>
       </c>
       <c r="W47" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X47" s="40"/>
       <c r="Y47" s="28">
@@ -7112,52 +7014,53 @@
       <c r="CM47" s="2"/>
       <c r="CN47" s="2"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E48" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" s="32">
-        <f>powerIn1H_quarter1+powerIn15M_quarter1-powerOut1H_quarter1-powerOut15M_quarter1</f>
-        <v>3.9720000000000004</v>
+        <f ca="1">SUMIF(D90:D113,D48,H90:H113)</f>
+        <v>3.972</v>
       </c>
       <c r="I48" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H48,3),",",".")</f>
+        <f ca="1">SUBSTITUTE(ROUND(H48,3),",",".")</f>
         <v>3.972</v>
       </c>
+      <c r="J48" s="58"/>
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
       <c r="U48" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V48" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[settlement_method],"E02",TableDay1[resolution],"PT1H")/4</f>
         <v>2.2017500000000001</v>
       </c>
       <c r="W48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X48" s="7" t="s">
+      <c r="Z48" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y48" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA48" s="27"/>
       <c r="AB48" s="2"/>
@@ -7226,36 +7129,37 @@
       <c r="CM48" s="2"/>
       <c r="CN48" s="2"/>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" s="31" t="str">
         <f t="shared" ref="E49:E51" si="12">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="32">
-        <f>powerIn1H_quarter2+powerIn15M_quarter2-powerOut1H_quarter2-powerOut15M_quarter2</f>
-        <v>3.9729999999999999</v>
+        <f t="shared" ref="H49:H51" ca="1" si="13">SUMIF(D91:D114,D49,H91:H114)</f>
+        <v>3.972</v>
       </c>
       <c r="I49" s="27" t="str">
-        <f t="shared" ref="I49:I51" si="13">SUBSTITUTE(ROUND(H49,3),",",".")</f>
-        <v>3.973</v>
-      </c>
+        <f t="shared" ref="I49:I51" ca="1" si="14">SUBSTITUTE(ROUND(H49,3),",",".")</f>
+        <v>3.972</v>
+      </c>
+      <c r="J49" s="58"/>
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V49" s="19">
         <f>V$48</f>
@@ -7341,36 +7245,37 @@
       <c r="CM49" s="2"/>
       <c r="CN49" s="2"/>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E50" s="31" t="str">
         <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" s="32">
-        <f>powerIn1H_quarter3+powerIn15M_quarter3-powerOut1H_quarter3-powerOut15M_quarter3</f>
-        <v>3.9720000000000004</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.9729999999999999</v>
       </c>
       <c r="I50" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>3.972</v>
-      </c>
+        <f t="shared" ca="1" si="14"/>
+        <v>3.973</v>
+      </c>
+      <c r="J50" s="58"/>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="U50" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V50" s="19">
         <f>V$48</f>
@@ -7459,36 +7364,37 @@
       <c r="CM50" s="2"/>
       <c r="CN50" s="2"/>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E51" s="31" t="str">
         <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51" s="32">
-        <f>powerIn1H_quarter4+powerIn15M_quarter4-powerOut1H_quarter4-powerOut15M_quarter4</f>
-        <v>3.9720000000000004</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.972</v>
       </c>
       <c r="I51" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>3.972</v>
       </c>
+      <c r="J51" s="58"/>
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
       <c r="T51" s="24"/>
       <c r="U51" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V51" s="19">
         <f>V$48</f>
@@ -7577,12 +7483,12 @@
       <c r="CM51" s="2"/>
       <c r="CN51" s="2"/>
     </row>
-    <row r="52" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="E52" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" s="52"/>
       <c r="G52" s="52"/>
@@ -7591,7 +7497,7 @@
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
       <c r="U52" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V52" s="19">
         <f>V$48</f>
@@ -7680,7 +7586,7 @@
       <c r="CM52" s="2"/>
       <c r="CN52" s="2"/>
     </row>
-    <row r="53" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7708,7 +7614,7 @@
         <v>10.356999999999999</v>
       </c>
       <c r="W53" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X53" s="40"/>
       <c r="Y53" s="28">
@@ -7786,7 +7692,7 @@
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
     </row>
-    <row r="54" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7798,10 +7704,10 @@
         <v>800</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="32">
         <f>totalFlex1H_quarter1+totalFlex15M_quarter1</f>
@@ -7823,16 +7729,16 @@
         <v>2.5892499999999998</v>
       </c>
       <c r="W54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y54" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X54" s="7" t="s">
+      <c r="Z54" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y54" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z54" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA54" s="24"/>
       <c r="AB54" s="2"/>
@@ -7901,7 +7807,7 @@
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
     </row>
-    <row r="55" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7909,28 +7815,28 @@
         <v>4</v>
       </c>
       <c r="E55" s="31" t="str">
-        <f t="shared" ref="E55:E57" si="14">$AD$2</f>
+        <f t="shared" ref="E55:E57" si="15">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" s="32">
         <f>totalFlex1H_quarter2+totalFlex15M_quarter2</f>
         <v>2.5619999999999998</v>
       </c>
       <c r="I55" s="27" t="str">
-        <f t="shared" ref="I55:I57" si="15">SUBSTITUTE(ROUND(H55,3),",",".")</f>
+        <f t="shared" ref="I55:I57" si="16">SUBSTITUTE(ROUND(H55,3),",",".")</f>
         <v>2.562</v>
       </c>
       <c r="R55" s="44"/>
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
       <c r="U55" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V55" s="19">
         <f>V$54</f>
@@ -8016,7 +7922,7 @@
       <c r="CM55" s="2"/>
       <c r="CN55" s="2"/>
     </row>
-    <row r="56" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -8024,28 +7930,28 @@
         <v>5</v>
       </c>
       <c r="E56" s="31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="32">
         <f>totalFlex1H_quarter3+totalFlex15M_quarter3</f>
         <v>2.5630000000000002</v>
       </c>
       <c r="I56" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.563</v>
       </c>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
       <c r="U56" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V56" s="19">
         <f>V$54</f>
@@ -8060,7 +7966,7 @@
         <v>2.4999999999986144E-4</v>
       </c>
       <c r="Y56" s="23">
-        <f t="shared" ref="Y56:Y58" si="16">ROUND(W56,3)</f>
+        <f t="shared" ref="Y56:Y58" si="17">ROUND(W56,3)</f>
         <v>2.59</v>
       </c>
       <c r="Z56" s="23">
@@ -8134,7 +8040,7 @@
       <c r="CM56" s="2"/>
       <c r="CN56" s="2"/>
     </row>
-    <row r="57" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8142,28 +8048,28 @@
         <v>6</v>
       </c>
       <c r="E57" s="31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="32">
         <f>totalFlex1H_quarter4+totalFlex15M_quarter4</f>
         <v>2.5619999999999998</v>
       </c>
       <c r="I57" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.562</v>
       </c>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
       <c r="T57" s="24"/>
       <c r="U57" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V57" s="19">
         <f>V$54</f>
@@ -8178,7 +8084,7 @@
         <v>-7.5000000000002842E-4</v>
       </c>
       <c r="Y57" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.589</v>
       </c>
       <c r="Z57" s="23">
@@ -8252,12 +8158,12 @@
       <c r="CM57" s="2"/>
       <c r="CN57" s="2"/>
     </row>
-    <row r="58" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="E58" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
@@ -8266,7 +8172,7 @@
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
       <c r="U58" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V58" s="19">
         <f>V$54</f>
@@ -8281,7 +8187,7 @@
         <v>2.4999999999986144E-4</v>
       </c>
       <c r="Y58" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.589</v>
       </c>
       <c r="Z58" s="23">
@@ -8355,7 +8261,7 @@
       <c r="CM58" s="2"/>
       <c r="CN58" s="2"/>
     </row>
-    <row r="59" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8383,7 +8289,7 @@
         <v>20.468</v>
       </c>
       <c r="W59" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X59" s="40"/>
       <c r="Y59" s="28">
@@ -8461,7 +8367,7 @@
       <c r="CM59" s="2"/>
       <c r="CN59" s="2"/>
     </row>
-    <row r="60" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -8471,10 +8377,10 @@
         <v>800</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60" s="32">
         <f>totalProduction1H_quarter1+totalProduction15M_quarter1</f>
@@ -8488,23 +8394,23 @@
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
       <c r="U60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V60" s="9">
         <f>SUMIFS(TableDay1[TotalHour],TableDay1[type],"E20",TableDay1[resolution],"PT1H",TableDay1[from_ga],"800")/4</f>
         <v>5.117</v>
       </c>
       <c r="W60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y60" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X60" s="7" t="s">
+      <c r="Z60" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y60" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z60" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA60" s="27"/>
       <c r="AB60" s="2"/>
@@ -8573,34 +8479,34 @@
       <c r="CM60" s="2"/>
       <c r="CN60" s="2"/>
     </row>
-    <row r="61" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E61" s="31" t="str">
-        <f t="shared" ref="E61:E63" si="17">$AD$2</f>
+        <f t="shared" ref="E61:E63" si="18">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61" s="32">
         <f>totalProduction1H_quarter2+totalProduction15M_quarter2</f>
         <v>1.5009999999999999</v>
       </c>
       <c r="I61" s="27" t="str">
-        <f t="shared" ref="I61:I63" si="18">SUBSTITUTE(ROUND(H61,3),",",".")</f>
+        <f t="shared" ref="I61:I63" si="19">SUBSTITUTE(ROUND(H61,3),",",".")</f>
         <v>1.501</v>
       </c>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
       <c r="T61" s="24"/>
       <c r="U61" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V61" s="19">
         <f>V$60</f>
@@ -8686,34 +8592,34 @@
       <c r="CM61" s="2"/>
       <c r="CN61" s="2"/>
     </row>
-    <row r="62" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>800</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" s="32">
         <f>totalProduction1H_quarter3+totalProduction15M_quarter3</f>
         <v>1.5</v>
       </c>
       <c r="I62" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.5</v>
       </c>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
       <c r="U62" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V62" s="19">
         <f>V$60</f>
@@ -8728,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="23">
-        <f t="shared" ref="Y62:Y64" si="19">ROUND(W62,3)</f>
+        <f t="shared" ref="Y62:Y64" si="20">ROUND(W62,3)</f>
         <v>5.117</v>
       </c>
       <c r="Z62" s="23">
@@ -8802,34 +8708,34 @@
       <c r="CM62" s="2"/>
       <c r="CN62" s="2"/>
     </row>
-    <row r="63" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:92" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>800</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="32">
         <f>totalProduction1H_quarter4+totalProduction15M_quarter4</f>
         <v>1.5009999999999999</v>
       </c>
       <c r="I63" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.501</v>
       </c>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
       <c r="T63" s="24"/>
       <c r="U63" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V63" s="19">
         <f>V$60</f>
@@ -8844,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.117</v>
       </c>
       <c r="Z63" s="23">
@@ -8918,10 +8824,10 @@
       <c r="CM63" s="2"/>
       <c r="CN63" s="2"/>
     </row>
-    <row r="64" spans="1:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C64" s="2"/>
       <c r="E64" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" s="52"/>
       <c r="G64" s="52"/>
@@ -8930,7 +8836,7 @@
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
       <c r="U64" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V64" s="19">
         <f>V$60</f>
@@ -8945,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.117</v>
       </c>
       <c r="Z64" s="23">
@@ -9019,7 +8925,7 @@
       <c r="CM64" s="2"/>
       <c r="CN64" s="2"/>
     </row>
-    <row r="65" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
         <v>20</v>
@@ -9045,7 +8951,7 @@
         <v>19.056999999999999</v>
       </c>
       <c r="W65" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X65" s="56"/>
       <c r="Y65" s="28">
@@ -9123,7 +9029,7 @@
       <c r="CM65" s="2"/>
       <c r="CN65" s="2"/>
     </row>
-    <row r="66" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
         <v>3</v>
@@ -9133,17 +9039,17 @@
         <v>800</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" s="32">
-        <f>totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
+        <f ca="1">totalProduction1H_quarter1+totalProduction15M_quarter1+netEx_quarter1-totalFlex1H_quarter1-totalFlex15M_quarter1-totalNonprofiled1H_quarter1-totalNonprofiled15M_quarter1</f>
         <v>-8.2920000000000016</v>
       </c>
       <c r="I66" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H66,3),",",".")</f>
+        <f ca="1">SUBSTITUTE(ROUND(H66,3),",",".")</f>
         <v>-8.292</v>
       </c>
       <c r="R66" s="24"/>
@@ -9157,16 +9063,16 @@
         <v>4.7642500000000005</v>
       </c>
       <c r="W66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X66" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y66" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X66" s="7" t="s">
+      <c r="Z66" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Y66" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z66" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AA66" s="27"/>
       <c r="AB66" s="2"/>
@@ -9235,34 +9141,34 @@
       <c r="CM66" s="2"/>
       <c r="CN66" s="2"/>
     </row>
-    <row r="67" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="31" t="str">
-        <f t="shared" ref="E67:E69" si="20">$AD$2</f>
+        <f t="shared" ref="E67:E69" si="21">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" s="32">
-        <f>totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
-        <v>0.71000000000000041</v>
+        <f ca="1">totalProduction1H_quarter2+totalProduction15M_quarter2+netEx_quarter2-totalFlex1H_quarter2-totalFlex15M_quarter2-totalNonprofiled1H_quarter2-totalNonprofiled15M_quarter2</f>
+        <v>0.70900000000000007</v>
       </c>
       <c r="I67" s="27" t="str">
-        <f t="shared" ref="I67:I69" si="21">SUBSTITUTE(ROUND(H67,3),",",".")</f>
-        <v>0.71</v>
+        <f t="shared" ref="I67:I69" ca="1" si="22">SUBSTITUTE(ROUND(H67,3),",",".")</f>
+        <v>0.709</v>
       </c>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
       <c r="T67" s="24"/>
       <c r="U67" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V67" s="19">
         <f>V$66</f>
@@ -9348,34 +9254,34 @@
       <c r="CM67" s="2"/>
       <c r="CN67" s="2"/>
     </row>
-    <row r="68" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68" s="32">
-        <f>totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
-        <v>0.70800000000000018</v>
+        <f ca="1">totalProduction1H_quarter3+totalProduction15M_quarter3+netEx_quarter3-totalFlex1H_quarter3-totalFlex15M_quarter3-totalNonprofiled1H_quarter3-totalNonprofiled15M_quarter3</f>
+        <v>0.70899999999999963</v>
       </c>
       <c r="I68" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v>0.708</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0.709</v>
       </c>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V68" s="19">
         <f>V$66</f>
@@ -9464,27 +9370,27 @@
       <c r="CM68" s="2"/>
       <c r="CN68" s="2"/>
     </row>
-    <row r="69" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69" s="32">
-        <f>totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
-        <v>0.70900000000000096</v>
+        <f ca="1">totalProduction1H_quarter4+totalProduction15M_quarter4+netEx_quarter4-totalFlex1H_quarter4-totalFlex15M_quarter4-totalNonprofiled1H_quarter4-totalNonprofiled15M_quarter4</f>
+        <v>0.70900000000000007</v>
       </c>
       <c r="I69" s="27" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.709</v>
       </c>
       <c r="J69" s="2"/>
@@ -9492,7 +9398,7 @@
       <c r="S69" s="24"/>
       <c r="T69" s="24"/>
       <c r="U69" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V69" s="19">
         <f>V$66</f>
@@ -9581,10 +9487,10 @@
       <c r="CM69" s="2"/>
       <c r="CN69" s="2"/>
     </row>
-    <row r="70" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C70" s="2"/>
       <c r="E70" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
@@ -9593,7 +9499,7 @@
       <c r="S70" s="24"/>
       <c r="T70" s="27"/>
       <c r="U70" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V70" s="19">
         <f>V$66</f>
@@ -9682,7 +9588,7 @@
       <c r="CM70" s="2"/>
       <c r="CN70" s="2"/>
     </row>
-    <row r="71" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="s">
         <v>20</v>
@@ -9775,27 +9681,27 @@
       <c r="CM71" s="2"/>
       <c r="CN71" s="2"/>
     </row>
-    <row r="72" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E72" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" s="32">
-        <f>IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
-        <v>0.70900000000000096</v>
+        <f ca="1">IF(gridLoss1H_quarter4&gt;0,gridLoss1H_quarter4,0)</f>
+        <v>0.70900000000000007</v>
       </c>
       <c r="I72" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H72,3),",",".")</f>
+        <f ca="1">SUBSTITUTE(ROUND(H72,3),",",".")</f>
         <v>0.709</v>
       </c>
       <c r="R72" s="24"/>
@@ -9874,28 +9780,28 @@
       <c r="CM72" s="2"/>
       <c r="CN72" s="2"/>
     </row>
-    <row r="73" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E73" s="31" t="str">
-        <f t="shared" ref="E73:E75" si="22">$AD$2</f>
+        <f t="shared" ref="E73:E75" si="23">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" s="32">
-        <f>IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
-        <v>0.70800000000000018</v>
+        <f ca="1">IF(gridLoss1H_quarter3&gt;0,gridLoss1H_quarter3,0)</f>
+        <v>0.70899999999999963</v>
       </c>
       <c r="I73" s="27" t="str">
-        <f t="shared" ref="I73:I75" si="23">SUBSTITUTE(ROUND(H73,3),",",".")</f>
-        <v>0.708</v>
+        <f t="shared" ref="I73:I75" ca="1" si="24">SUBSTITUTE(ROUND(H73,3),",",".")</f>
+        <v>0.709</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
@@ -9966,28 +9872,28 @@
       <c r="CM73" s="2"/>
       <c r="CN73" s="2"/>
     </row>
-    <row r="74" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E74" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="32">
-        <f>IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
-        <v>0.71000000000000041</v>
+        <f ca="1">IF(gridLoss1H_quarter2&gt;0,gridLoss1H_quarter2,0)</f>
+        <v>0.70900000000000007</v>
       </c>
       <c r="I74" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v>0.71</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>0.709</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10069,27 +9975,27 @@
       <c r="CM74" s="2"/>
       <c r="CN74" s="2"/>
     </row>
-    <row r="75" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E75" s="31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" s="32">
-        <f>IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter1&gt;0,gridLoss1H_quarter1,0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="27" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="P75" s="2"/>
@@ -10170,10 +10076,10 @@
       <c r="CM75" s="2"/>
       <c r="CN75" s="2"/>
     </row>
-    <row r="76" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C76" s="2"/>
       <c r="E76" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" s="52"/>
       <c r="G76" s="52"/>
@@ -10263,7 +10169,7 @@
       <c r="CM76" s="2"/>
       <c r="CN76" s="2"/>
     </row>
-    <row r="77" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="4" t="s">
         <v>20</v>
@@ -10365,27 +10271,27 @@
       <c r="CM77" s="2"/>
       <c r="CN77" s="2"/>
     </row>
-    <row r="78" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E78" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" s="32">
-        <f>IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter4&lt;0,gridLoss1H_quarter4*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H78,3),",",".")</f>
+        <f ca="1">SUBSTITUTE(ROUND(H78,3),",",".")</f>
         <v>0</v>
       </c>
       <c r="J78" s="2"/>
@@ -10472,27 +10378,27 @@
       <c r="CM78" s="2"/>
       <c r="CN78" s="2"/>
     </row>
-    <row r="79" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E79" s="31" t="str">
-        <f t="shared" ref="E79:E81" si="24">$AD$2</f>
+        <f t="shared" ref="E79:E81" si="25">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79" s="32">
-        <f>IF(gridLoss1H_quarter3&lt;0,gridLoss1H_quarter3*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter3&lt;0,gridLoss1H_quarter3*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I79" s="27" t="str">
-        <f t="shared" ref="I79:I81" si="25">SUBSTITUTE(ROUND(H79,3),",",".")</f>
+        <f t="shared" ref="I79:I81" ca="1" si="26">SUBSTITUTE(ROUND(H79,3),",",".")</f>
         <v>0</v>
       </c>
       <c r="J79" s="2"/>
@@ -10579,27 +10485,27 @@
       <c r="CM79" s="2"/>
       <c r="CN79" s="2"/>
     </row>
-    <row r="80" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E80" s="31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" s="32">
-        <f>IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter2&lt;0,gridLoss1H_quarter2*-1,0)</f>
         <v>0</v>
       </c>
       <c r="I80" s="27" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="J80" s="2"/>
@@ -10686,27 +10592,27 @@
       <c r="CM80" s="2"/>
       <c r="CN80" s="2"/>
     </row>
-    <row r="81" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E81" s="31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81" s="32">
-        <f>IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
+        <f ca="1">IF(gridLoss1H_quarter1&lt;0,(gridLoss1H_quarter1)*-1,0)</f>
         <v>8.2920000000000016</v>
       </c>
       <c r="I81" s="27" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>8.292</v>
       </c>
       <c r="J81" s="2"/>
@@ -10793,10 +10699,10 @@
       <c r="CM81" s="2"/>
       <c r="CN81" s="2"/>
     </row>
-    <row r="82" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C82" s="2"/>
       <c r="E82" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F82" s="52"/>
       <c r="G82" s="52"/>
@@ -10886,7 +10792,7 @@
       <c r="CM82" s="2"/>
       <c r="CN82" s="2"/>
     </row>
-    <row r="83" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="s">
         <v>20</v>
@@ -10988,33 +10894,33 @@
       <c r="CM83" s="2"/>
       <c r="CN83" s="2"/>
     </row>
-    <row r="84" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E84" s="31" t="str">
         <f>$AD$2</f>
         <v>800</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" s="32">
-        <f>netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
+        <f ca="1">netEx_quarter1+totalProduction1H_quarter1+totalProduction15M_quarter1+negGridLossQuarter1</f>
         <v>19.765000000000001</v>
       </c>
       <c r="I84" s="27" t="str">
-        <f>SUBSTITUTE(ROUND(H84,3),",",".")</f>
+        <f ca="1">SUBSTITUTE(ROUND(H84,3),",",".")</f>
         <v>19.765</v>
       </c>
       <c r="J84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W84" s="54"/>
       <c r="X84" s="54"/>
@@ -11087,28 +10993,28 @@
       <c r="CM84" s="2"/>
       <c r="CN84" s="2"/>
     </row>
-    <row r="85" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E85" s="31" t="str">
-        <f t="shared" ref="E85:E87" si="26">$AD$2</f>
+        <f t="shared" ref="E85:E87" si="27">$AD$2</f>
         <v>800</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85" s="32">
-        <f>netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
-        <v>5.4740000000000002</v>
+        <f ca="1">netEx_quarter2+totalProduction1H_quarter2+totalProduction15M_quarter2+negGridLossQuarter2</f>
+        <v>5.4729999999999999</v>
       </c>
       <c r="I85" s="27" t="str">
-        <f t="shared" ref="I85:I87" si="27">SUBSTITUTE(ROUND(H85,3),",",".")</f>
-        <v>5.474</v>
+        <f t="shared" ref="I85:I87" ca="1" si="28">SUBSTITUTE(ROUND(H85,3),",",".")</f>
+        <v>5.473</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -11117,16 +11023,16 @@
         <v>14</v>
       </c>
       <c r="W85" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X85" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z85" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="Y85" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z85" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
@@ -11134,8 +11040,7 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-      <c r="AG85" s="27"/>
-      <c r="AH85" s="2"/>
+      <c r="AH85" s="27"/>
       <c r="AI85" s="2"/>
       <c r="AJ85" s="2"/>
       <c r="AK85" s="2"/>
@@ -11195,62 +11100,60 @@
       <c r="CM85" s="2"/>
       <c r="CN85" s="2"/>
     </row>
-    <row r="86" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E86" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>800</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86" s="32">
-        <f>netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
-        <v>5.4720000000000004</v>
+        <f ca="1">netEx_quarter3+totalProduction1H_quarter3+totalProduction15M_quarter3+negGridLossQuarter3</f>
+        <v>5.4729999999999999</v>
       </c>
       <c r="I86" s="27" t="str">
-        <f t="shared" si="27"/>
-        <v>5.472</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>5.473</v>
       </c>
       <c r="J86" s="2"/>
       <c r="R86" s="37"/>
       <c r="S86" s="2"/>
       <c r="U86" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V86" s="26" cm="1">
-        <f t="array" aca="1" ref="V86" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V86" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U86&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W86" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$3))/4</f>
-        <v>-2.5277500000000002</v>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$3)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$3))/4</f>
+        <v>0</v>
       </c>
       <c r="X86" s="16">
         <f>W86</f>
-        <v>-2.5277500000000002</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="16"/>
       <c r="Z86" s="16">
-        <f t="shared" ref="Z86:Z109" si="28">ROUND(X86, 3)</f>
-        <v>-2.528</v>
+        <f t="shared" ref="Z86:Z109" si="29">ROUND(X86, 3)</f>
+        <v>0</v>
       </c>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="2"/>
-      <c r="AF86" s="2"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="2"/>
+      <c r="AE86" s="58"/>
+      <c r="AF86" s="58"/>
+      <c r="AG86" s="58"/>
+      <c r="AH86" s="27"/>
       <c r="AI86" s="2"/>
-      <c r="AJ86" s="2"/>
       <c r="AK86" s="2"/>
       <c r="AL86" s="2"/>
       <c r="AM86" s="2"/>
@@ -11308,54 +11211,54 @@
       <c r="CM86" s="2"/>
       <c r="CN86" s="2"/>
     </row>
-    <row r="87" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E87" s="31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>800</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87" s="32">
-        <f>netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
-        <v>5.4730000000000008</v>
+        <f ca="1">netEx_quarter4+totalProduction1H_quarter4+totalProduction15M_quarter4+negGridLossQuarter4</f>
+        <v>5.4729999999999999</v>
       </c>
       <c r="I87" s="27" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>5.473</v>
       </c>
       <c r="J87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="U87" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V87" s="26" cm="1">
-        <f t="array" aca="1" ref="V87" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V87" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U87&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W87" s="16">
         <f>W$86</f>
-        <v>-2.5277500000000002</v>
+        <v>0</v>
       </c>
       <c r="X87" s="16">
         <f>Y87+X86</f>
-        <v>-2.5275000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="16">
         <f>W87-Z86</f>
-        <v>2.4999999999986144E-4</v>
+        <v>0</v>
       </c>
       <c r="Z87" s="16">
-        <f t="shared" si="28"/>
-        <v>-2.528</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
@@ -11424,10 +11327,10 @@
       <c r="CM87" s="2"/>
       <c r="CN87" s="2"/>
     </row>
-    <row r="88" spans="3:92" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:92" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C88" s="2"/>
       <c r="E88" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
@@ -11437,27 +11340,27 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="U88" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V88" s="26" cm="1">
-        <f t="array" aca="1" ref="V88" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V88" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U88&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W88" s="16">
         <f>W$86</f>
-        <v>-2.5277500000000002</v>
+        <v>0</v>
       </c>
       <c r="X88" s="16">
         <f>Y88+X87</f>
-        <v>-2.5272500000000004</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="16">
         <f>W88-Z87</f>
-        <v>2.4999999999986144E-4</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="16">
-        <f t="shared" si="28"/>
-        <v>-2.5270000000000001</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
@@ -11526,7 +11429,7 @@
       <c r="CM88" s="2"/>
       <c r="CN88" s="2"/>
     </row>
-    <row r="89" spans="3:92" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:92" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="4" t="s">
         <v>20</v>
@@ -11544,33 +11447,33 @@
         <v>2</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="U89" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V89" s="26" cm="1">
-        <f t="array" aca="1" ref="V89" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V89" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U89&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W89" s="16">
         <f>W$86</f>
-        <v>-2.5277500000000002</v>
+        <v>0</v>
       </c>
       <c r="X89" s="16">
         <f>Y89+X88</f>
-        <v>-2.5280000000000005</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="16">
         <f>W89-Z88</f>
-        <v>-7.5000000000002842E-4</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="16">
-        <f t="shared" si="28"/>
-        <v>-2.528</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
@@ -11639,13 +11542,13 @@
       <c r="CM89" s="2"/>
       <c r="CN89" s="2"/>
     </row>
-    <row r="90" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E90" s="31" t="str">
-        <f t="shared" ref="E90:E113" si="29">IF(AND(ROW()&lt;86+(COUNTA(AH$2:AH$21)*4),ROW()&gt;89),$AH$2,"")</f>
+        <f>IF(ROW()&lt;90+(COUNTA(AH$3:AH$21)*4),$AD$2,"")</f>
         <v>800</v>
       </c>
       <c r="F90" s="31" t="str">
@@ -11658,37 +11561,37 @@
       </c>
       <c r="H90" s="32">
         <f ca="1">IF(E90="","",V86+Z86)</f>
-        <v>-2.528</v>
+        <v>0</v>
       </c>
       <c r="I90" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
+        <f t="array" aca="1" ref="I90" ca="1">IF(E90="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>800</v>
       </c>
       <c r="J90" s="27" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(ROUND(H90,3),",","."),"")</f>
-        <v>-2.528</v>
+        <v>0</v>
       </c>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="U90" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V90" s="26" cm="1">
-        <f t="array" aca="1" ref="V90" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>6.5</v>
+        <f t="array" aca="1" ref="V90" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U90&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <v>0</v>
       </c>
       <c r="W90" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$4)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$4))/4</f>
-        <v>0</v>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$4)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$4))/4</f>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="X90" s="16">
         <f>W90</f>
-        <v>0</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="Y90" s="16"/>
       <c r="Z90" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-2.528</v>
       </c>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
@@ -11757,58 +11660,58 @@
       <c r="CM90" s="2"/>
       <c r="CN90" s="2"/>
     </row>
-    <row r="91" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E91" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="E91:E113" si="30">IF(ROW()&lt;90+(COUNTA(AH$3:AH$21)*4),$AD$2,"")</f>
         <v>800</v>
       </c>
       <c r="F91" s="31" t="str">
-        <f t="shared" ref="F91:F113" si="30">IF(E91&lt;&gt;"","null","")</f>
+        <f t="shared" ref="F91:F113" si="31">IF(E91&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
       <c r="G91" s="31" t="str">
-        <f t="shared" ref="G91:G113" si="31">IF(E91&lt;&gt;"","null","")</f>
+        <f t="shared" ref="G91:G113" si="32">IF(E91&lt;&gt;"","null","")</f>
         <v>null</v>
       </c>
       <c r="H91" s="32">
-        <f t="shared" ref="H91:H113" ca="1" si="32">IF(E91="","",V87+Z87)</f>
-        <v>-2.528</v>
+        <f t="shared" ref="H91:H113" ca="1" si="33">IF(E91="","",V87+Z87)</f>
+        <v>0</v>
       </c>
       <c r="I91" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
+        <f t="array" aca="1" ref="I91" ca="1">IF(E91="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>800</v>
       </c>
       <c r="J91" s="27" t="str">
-        <f t="shared" ref="J91:J113" ca="1" si="33">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
-        <v>-2.528</v>
+        <f t="shared" ref="J91:J113" ca="1" si="34">IFERROR(SUBSTITUTE(ROUND(H91,3),",","."),"")</f>
+        <v>0</v>
       </c>
       <c r="R91" s="2"/>
       <c r="U91" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V91" s="26" cm="1">
-        <f t="array" aca="1" ref="V91" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>6.5</v>
+        <f t="array" aca="1" ref="V91" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U91&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <v>0</v>
       </c>
       <c r="W91" s="16">
         <f>W$90</f>
-        <v>0</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="X91" s="16">
         <f>Y91+X90</f>
-        <v>0</v>
+        <v>-2.5275000000000003</v>
       </c>
       <c r="Y91" s="16">
         <f>W91-Z90</f>
-        <v>0</v>
+        <v>2.4999999999986144E-4</v>
       </c>
       <c r="Z91" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-2.528</v>
       </c>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
@@ -11877,57 +11780,57 @@
       <c r="CM91" s="2"/>
       <c r="CN91" s="2"/>
     </row>
-    <row r="92" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E92" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F92" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G92" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G92" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H92" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>-2.5270000000000001</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="I92" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
+        <f t="array" aca="1" ref="I92" ca="1">IF(E92="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>800</v>
       </c>
       <c r="J92" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>-2.527</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U92" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V92" s="26" cm="1">
-        <f t="array" aca="1" ref="V92" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>6.5</v>
+        <f t="array" aca="1" ref="V92" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U92&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <v>0</v>
       </c>
       <c r="W92" s="16">
         <f>W$90</f>
-        <v>0</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="X92" s="16">
         <f>Y92+X91</f>
-        <v>0</v>
+        <v>-2.5272500000000004</v>
       </c>
       <c r="Y92" s="16">
         <f>W92-Z91</f>
-        <v>0</v>
+        <v>2.4999999999986144E-4</v>
       </c>
       <c r="Z92" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-2.5270000000000001</v>
       </c>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
@@ -11996,57 +11899,57 @@
       <c r="CM92" s="2"/>
       <c r="CN92" s="2"/>
     </row>
-    <row r="93" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E93" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F93" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G93" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G93" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H93" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>-2.528</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
       </c>
       <c r="I93" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>801</v>
+        <f t="array" aca="1" ref="I93" ca="1">IF(E93="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>800</v>
       </c>
       <c r="J93" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>-2.528</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
       </c>
       <c r="U93" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V93" s="26" cm="1">
-        <f t="array" aca="1" ref="V93" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>6.5</v>
+        <f t="array" aca="1" ref="V93" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U93&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <v>0</v>
       </c>
       <c r="W93" s="16">
         <f>W$90</f>
-        <v>0</v>
+        <v>-2.5277500000000002</v>
       </c>
       <c r="X93" s="16">
         <f>Y93+X92</f>
-        <v>0</v>
+        <v>-2.5280000000000005</v>
       </c>
       <c r="Y93" s="16">
         <f>W93-Z92</f>
-        <v>0</v>
+        <v>-7.5000000000002842E-4</v>
       </c>
       <c r="Z93" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>-2.528</v>
       </c>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
@@ -12115,44 +12018,44 @@
       <c r="CM93" s="2"/>
       <c r="CN93" s="2"/>
     </row>
-    <row r="94" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E94" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F94" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G94" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G94" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H94" s="32">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
+        <v>-2.528</v>
+      </c>
+      <c r="I94" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>801</v>
+      </c>
+      <c r="J94" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>-2.528</v>
+      </c>
+      <c r="U94" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="V94" s="26" cm="1">
+        <f t="array" aca="1" ref="V94" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>6.5</v>
       </c>
-      <c r="I94" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I94" ca="1">IF(E94="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
-      </c>
-      <c r="J94" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>6.5</v>
-      </c>
-      <c r="U94" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="V94" s="26" cm="1">
-        <f t="array" aca="1" ref="V94" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U94&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
-      </c>
       <c r="W94" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$5))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$5)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$5))/4</f>
         <v>0</v>
       </c>
       <c r="X94" s="16">
@@ -12161,7 +12064,7 @@
       </c>
       <c r="Y94" s="16"/>
       <c r="Z94" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA94" s="2"/>
@@ -12231,41 +12134,41 @@
       <c r="CM94" s="2"/>
       <c r="CN94" s="2"/>
     </row>
-    <row r="95" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E95" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F95" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G95" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G95" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H95" s="32">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
+        <v>-2.528</v>
+      </c>
+      <c r="I95" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>801</v>
+      </c>
+      <c r="J95" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>-2.528</v>
+      </c>
+      <c r="U95" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V95" s="26" cm="1">
+        <f t="array" aca="1" ref="V95" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>6.5</v>
-      </c>
-      <c r="I95" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I95" ca="1">IF(E95="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
-      </c>
-      <c r="J95" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>6.5</v>
-      </c>
-      <c r="U95" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="V95" s="26" cm="1">
-        <f t="array" aca="1" ref="V95" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U95&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
       </c>
       <c r="W95" s="16">
         <f>W$94</f>
@@ -12280,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA95" s="2"/>
@@ -12350,41 +12253,41 @@
       <c r="CM95" s="2"/>
       <c r="CN95" s="2"/>
     </row>
-    <row r="96" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E96" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F96" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G96" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G96" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H96" s="32">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
+        <v>-2.5270000000000001</v>
+      </c>
+      <c r="I96" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>801</v>
+      </c>
+      <c r="J96" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>-2.527</v>
+      </c>
+      <c r="U96" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V96" s="26" cm="1">
+        <f t="array" aca="1" ref="V96" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>6.5</v>
-      </c>
-      <c r="I96" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I96" ca="1">IF(E96="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
-      </c>
-      <c r="J96" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>6.5</v>
-      </c>
-      <c r="U96" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="V96" s="26" cm="1">
-        <f t="array" aca="1" ref="V96" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U96&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
       </c>
       <c r="W96" s="16">
         <f>W$94</f>
@@ -12399,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA96" s="2"/>
@@ -12469,41 +12372,41 @@
       <c r="CM96" s="2"/>
       <c r="CN96" s="2"/>
     </row>
-    <row r="97" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E97" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F97" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G97" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G97" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H97" s="32">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
+        <v>-2.528</v>
+      </c>
+      <c r="I97" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>801</v>
+      </c>
+      <c r="J97" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>-2.528</v>
+      </c>
+      <c r="U97" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V97" s="26" cm="1">
+        <f t="array" aca="1" ref="V97" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>6.5</v>
-      </c>
-      <c r="I97" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I97" ca="1">IF(E97="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>803</v>
-      </c>
-      <c r="J97" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>6.5</v>
-      </c>
-      <c r="U97" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="V97" s="26" cm="1">
-        <f t="array" aca="1" ref="V97" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U97&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
       </c>
       <c r="W97" s="16">
         <f>W$94</f>
@@ -12518,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA97" s="2"/>
@@ -12588,44 +12491,44 @@
       <c r="CM97" s="2"/>
       <c r="CN97" s="2"/>
     </row>
-    <row r="98" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E98" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F98" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G98" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G98" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H98" s="32">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
+        <v>6.5</v>
+      </c>
+      <c r="I98" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
+      </c>
+      <c r="J98" s="27" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>6.5</v>
+      </c>
+      <c r="U98" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="V98" s="26" cm="1">
+        <f t="array" aca="1" ref="V98" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
-      <c r="I98" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I98" ca="1">IF(E98="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
-      </c>
-      <c r="J98" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="V98" s="26" cm="1">
-        <f t="array" aca="1" ref="V98" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U98&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
-        <v>0</v>
-      </c>
       <c r="W98" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$6)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$6))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$6)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$6))/4</f>
         <v>0</v>
       </c>
       <c r="X98" s="16">
@@ -12634,7 +12537,7 @@
       </c>
       <c r="Y98" s="16"/>
       <c r="Z98" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA98" s="2"/>
@@ -12704,40 +12607,40 @@
       <c r="CM98" s="2"/>
       <c r="CN98" s="2"/>
     </row>
-    <row r="99" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E99" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F99" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G99" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G99" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H99" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>6.5</v>
       </c>
       <c r="I99" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <f t="array" aca="1" ref="I99" ca="1">IF(E99="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
       </c>
       <c r="J99" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>6.5</v>
       </c>
       <c r="U99" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V99" s="26" cm="1">
-        <f t="array" aca="1" ref="V99" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V99" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U99&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W99" s="16">
@@ -12753,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA99" s="2"/>
@@ -12823,40 +12726,40 @@
       <c r="CM99" s="2"/>
       <c r="CN99" s="2"/>
     </row>
-    <row r="100" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E100" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F100" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G100" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G100" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H100" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>6.5</v>
       </c>
       <c r="I100" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <f t="array" aca="1" ref="I100" ca="1">IF(E100="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
       </c>
       <c r="J100" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>6.5</v>
       </c>
       <c r="U100" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V100" s="26" cm="1">
-        <f t="array" aca="1" ref="V100" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V100" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U100&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W100" s="16">
@@ -12872,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA100" s="2"/>
@@ -12942,40 +12845,40 @@
       <c r="CM100" s="2"/>
       <c r="CN100" s="2"/>
     </row>
-    <row r="101" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E101" s="31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="F101" s="31" t="str">
-        <f t="shared" si="30"/>
-        <v>null</v>
-      </c>
-      <c r="G101" s="31" t="str">
         <f t="shared" si="31"/>
         <v>null</v>
       </c>
+      <c r="G101" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>null</v>
+      </c>
       <c r="H101" s="32">
-        <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>6.5</v>
       </c>
       <c r="I101" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v>804</v>
+        <f t="array" aca="1" ref="I101" ca="1">IF(E101="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v>803</v>
       </c>
       <c r="J101" s="27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>6.5</v>
       </c>
       <c r="U101" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V101" s="26" cm="1">
-        <f t="array" aca="1" ref="V101" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V101" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U101&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W101" s="16">
@@ -12991,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="Z101" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA101" s="2"/>
@@ -13061,44 +12964,44 @@
       <c r="CM101" s="2"/>
       <c r="CN101" s="2"/>
     </row>
-    <row r="102" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E102" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F102" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G102" s="31" t="str">
+      <c r="F102" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H102" s="32" t="str">
+      <c r="G102" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I102" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J102" s="27" t="str">
+      <c r="H102" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I102" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I102" ca="1">IF(E102="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J102" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U102" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V102" s="26" cm="1">
-        <f t="array" aca="1" ref="V102" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V102" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U102&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W102" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$7)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$7))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$7)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$7))/4</f>
         <v>0</v>
       </c>
       <c r="X102" s="16">
@@ -13107,7 +13010,7 @@
       </c>
       <c r="Y102" s="16"/>
       <c r="Z102" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA102" s="2"/>
@@ -13177,40 +13080,40 @@
       <c r="CM102" s="2"/>
       <c r="CN102" s="2"/>
     </row>
-    <row r="103" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E103" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F103" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G103" s="31" t="str">
+      <c r="F103" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H103" s="32" t="str">
+      <c r="G103" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I103" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J103" s="27" t="str">
+      <c r="H103" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I103" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I103" ca="1">IF(E103="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J103" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U103" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V103" s="26" cm="1">
-        <f t="array" aca="1" ref="V103" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V103" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U103&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W103" s="16">
@@ -13226,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA103" s="2"/>
@@ -13296,40 +13199,40 @@
       <c r="CM103" s="2"/>
       <c r="CN103" s="2"/>
     </row>
-    <row r="104" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E104" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F104" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G104" s="31" t="str">
+      <c r="F104" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H104" s="32" t="str">
+      <c r="G104" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I104" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J104" s="27" t="str">
+      <c r="H104" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I104" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I104" ca="1">IF(E104="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J104" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U104" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V104" s="26" cm="1">
-        <f t="array" aca="1" ref="V104" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V104" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U104&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W104" s="16">
@@ -13345,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA104" s="2"/>
@@ -13415,40 +13318,40 @@
       <c r="CM104" s="2"/>
       <c r="CN104" s="2"/>
     </row>
-    <row r="105" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E105" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F105" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G105" s="31" t="str">
+      <c r="F105" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H105" s="32" t="str">
+      <c r="G105" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I105" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J105" s="27" t="str">
+      <c r="H105" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I105" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I105" ca="1">IF(E105="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J105" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U105" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V105" s="26" cm="1">
-        <f t="array" aca="1" ref="V105" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V105" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U105&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W105" s="16">
@@ -13464,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA105" s="2"/>
@@ -13534,44 +13437,44 @@
       <c r="CM105" s="2"/>
       <c r="CN105" s="2"/>
     </row>
-    <row r="106" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E106" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F106" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G106" s="31" t="str">
+      <c r="F106" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H106" s="32" t="str">
+      <c r="G106" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I106" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I106" ca="1">IF(E106="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J106" s="27" t="str">
+      <c r="H106" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I106" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I106" ca="1">IF(E106="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J106" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U106" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V106" s="26" cm="1">
-        <f t="array" aca="1" ref="V106" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V106" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U106&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W106" s="6">
-        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AH$8)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AH$8))/4</f>
+        <f>(SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[from_ga],AK$8)-SUMIFS(TableDay1[Quarter1],TableDay1[resolution],"PT1H",TableDay1[to_ga],AK$8))/4</f>
         <v>0</v>
       </c>
       <c r="X106" s="16">
@@ -13580,7 +13483,7 @@
       </c>
       <c r="Y106" s="16"/>
       <c r="Z106" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA106" s="2"/>
@@ -13650,40 +13553,40 @@
       <c r="CM106" s="2"/>
       <c r="CN106" s="2"/>
     </row>
-    <row r="107" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E107" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F107" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G107" s="31" t="str">
+      <c r="F107" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H107" s="32" t="str">
+      <c r="G107" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I107" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I107" ca="1">IF(E107="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J107" s="27" t="str">
+      <c r="H107" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I107" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I107" ca="1">IF(E107="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J107" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U107" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V107" s="26" cm="1">
-        <f t="array" aca="1" ref="V107" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V107" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U107&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W107" s="16">
@@ -13699,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA107" s="2"/>
@@ -13769,40 +13672,40 @@
       <c r="CM107" s="2"/>
       <c r="CN107" s="2"/>
     </row>
-    <row r="108" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E108" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F108" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G108" s="31" t="str">
+      <c r="F108" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H108" s="32" t="str">
+      <c r="G108" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I108" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I108" ca="1">IF(E108="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J108" s="27" t="str">
+      <c r="H108" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I108" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I108" ca="1">IF(E108="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J108" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U108" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V108" s="26" cm="1">
-        <f t="array" aca="1" ref="V108" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V108" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U108&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W108" s="16">
@@ -13818,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA108" s="2"/>
@@ -13888,40 +13791,40 @@
       <c r="CM108" s="2"/>
       <c r="CN108" s="2"/>
     </row>
-    <row r="109" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E109" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F109" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G109" s="31" t="str">
+      <c r="F109" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H109" s="32" t="str">
+      <c r="G109" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I109" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I109" ca="1">IF(E109="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
-        <v/>
-      </c>
-      <c r="J109" s="27" t="str">
+      <c r="H109" s="32" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
+      <c r="I109" s="32" t="str" cm="1">
+        <f t="array" aca="1" ref="I109" ca="1">IF(E109="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <v/>
+      </c>
+      <c r="J109" s="27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="U109" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V109" s="26" cm="1">
-        <f t="array" aca="1" ref="V109" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AH"&amp;ROUND(ROW()*0.25-19,0)))</f>
+        <f t="array" aca="1" ref="V109" ca="1">SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[from_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))-SUMIFS(INDIRECT("TableDay1["&amp;U109&amp;"]"),TableDay1[resolution],"PT15M",TableDay1[to_ga],INDIRECT("AK"&amp;ROUND(ROW()*0.25-19,0)))</f>
         <v>0</v>
       </c>
       <c r="W109" s="16">
@@ -13937,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA109" s="2"/>
@@ -14007,33 +13910,33 @@
       <c r="CM109" s="2"/>
       <c r="CN109" s="2"/>
     </row>
-    <row r="110" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E110" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F110" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G110" s="31" t="str">
+      <c r="F110" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H110" s="32" t="str">
+      <c r="G110" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H110" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I110" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I110" ca="1">IF(E110="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I110" ca="1">IF(E110="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J110" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K110" s="2"/>
@@ -14119,33 +14022,33 @@
       <c r="CM110" s="2"/>
       <c r="CN110" s="2"/>
     </row>
-    <row r="111" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E111" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F111" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G111" s="31" t="str">
+      <c r="F111" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H111" s="32" t="str">
+      <c r="G111" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H111" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I111" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I111" ca="1">IF(E111="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I111" ca="1">IF(E111="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J111" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K111" s="2"/>
@@ -14231,33 +14134,33 @@
       <c r="CM111" s="2"/>
       <c r="CN111" s="2"/>
     </row>
-    <row r="112" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E112" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F112" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G112" s="31" t="str">
+      <c r="F112" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H112" s="32" t="str">
+      <c r="G112" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H112" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I112" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I112" ca="1">IF(E112="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I112" ca="1">IF(E112="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J112" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K112" s="2"/>
@@ -14343,33 +14246,33 @@
       <c r="CM112" s="2"/>
       <c r="CN112" s="2"/>
     </row>
-    <row r="113" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E113" s="31" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="F113" s="31" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G113" s="31" t="str">
+      <c r="F113" s="31" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H113" s="32" t="str">
+      <c r="G113" s="31" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H113" s="32" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="I113" s="32" t="str" cm="1">
-        <f t="array" aca="1" ref="I113" ca="1">IF(E113="","",INDIRECT("AH"&amp;ROUND((ROW()-80)*0.25,0)))</f>
+        <f t="array" aca="1" ref="I113" ca="1">IF(E113="","",INDIRECT("AJ"&amp;ROUND((ROW()-80)*0.25,0)))</f>
         <v/>
       </c>
       <c r="J113" s="27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K113" s="2"/>
@@ -14455,7 +14358,7 @@
       <c r="CM113" s="2"/>
       <c r="CN113" s="2"/>
     </row>
-    <row r="114" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -14545,7 +14448,7 @@
       <c r="CM114" s="2"/>
       <c r="CN114" s="2"/>
     </row>
-    <row r="115" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -14635,7 +14538,7 @@
       <c r="CM115" s="2"/>
       <c r="CN115" s="2"/>
     </row>
-    <row r="116" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -14725,7 +14628,7 @@
       <c r="CM116" s="2"/>
       <c r="CN116" s="2"/>
     </row>
-    <row r="117" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -14815,7 +14718,7 @@
       <c r="CM117" s="2"/>
       <c r="CN117" s="2"/>
     </row>
-    <row r="118" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -14907,7 +14810,7 @@
       <c r="CM118" s="2"/>
       <c r="CN118" s="2"/>
     </row>
-    <row r="119" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -14999,7 +14902,7 @@
       <c r="CM119" s="2"/>
       <c r="CN119" s="2"/>
     </row>
-    <row r="120" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -15091,7 +14994,7 @@
       <c r="CM120" s="2"/>
       <c r="CN120" s="2"/>
     </row>
-    <row r="121" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -15183,7 +15086,7 @@
       <c r="CM121" s="2"/>
       <c r="CN121" s="2"/>
     </row>
-    <row r="122" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -15275,7 +15178,7 @@
       <c r="CM122" s="2"/>
       <c r="CN122" s="2"/>
     </row>
-    <row r="123" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -15367,7 +15270,7 @@
       <c r="CM123" s="2"/>
       <c r="CN123" s="2"/>
     </row>
-    <row r="124" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -15459,7 +15362,7 @@
       <c r="CM124" s="2"/>
       <c r="CN124" s="2"/>
     </row>
-    <row r="125" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -15551,7 +15454,7 @@
       <c r="CM125" s="2"/>
       <c r="CN125" s="2"/>
     </row>
-    <row r="126" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -15643,7 +15546,7 @@
       <c r="CM126" s="2"/>
       <c r="CN126" s="2"/>
     </row>
-    <row r="127" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -15735,7 +15638,7 @@
       <c r="CM127" s="2"/>
       <c r="CN127" s="2"/>
     </row>
-    <row r="128" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -15827,7 +15730,7 @@
       <c r="CM128" s="2"/>
       <c r="CN128" s="2"/>
     </row>
-    <row r="129" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -15919,7 +15822,7 @@
       <c r="CM129" s="2"/>
       <c r="CN129" s="2"/>
     </row>
-    <row r="130" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -16011,7 +15914,7 @@
       <c r="CM130" s="2"/>
       <c r="CN130" s="2"/>
     </row>
-    <row r="131" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -16103,7 +16006,7 @@
       <c r="CM131" s="2"/>
       <c r="CN131" s="2"/>
     </row>
-    <row r="132" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -16195,7 +16098,7 @@
       <c r="CM132" s="2"/>
       <c r="CN132" s="2"/>
     </row>
-    <row r="133" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -16287,7 +16190,7 @@
       <c r="CM133" s="2"/>
       <c r="CN133" s="2"/>
     </row>
-    <row r="134" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -16379,7 +16282,7 @@
       <c r="CM134" s="2"/>
       <c r="CN134" s="2"/>
     </row>
-    <row r="135" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -16471,7 +16374,7 @@
       <c r="CM135" s="2"/>
       <c r="CN135" s="2"/>
     </row>
-    <row r="136" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -16563,7 +16466,7 @@
       <c r="CM136" s="2"/>
       <c r="CN136" s="2"/>
     </row>
-    <row r="137" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -16655,7 +16558,7 @@
       <c r="CM137" s="2"/>
       <c r="CN137" s="2"/>
     </row>
-    <row r="138" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -16747,7 +16650,7 @@
       <c r="CM138" s="2"/>
       <c r="CN138" s="2"/>
     </row>
-    <row r="139" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -16839,7 +16742,7 @@
       <c r="CM139" s="2"/>
       <c r="CN139" s="2"/>
     </row>
-    <row r="140" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -16931,7 +16834,7 @@
       <c r="CM140" s="2"/>
       <c r="CN140" s="2"/>
     </row>
-    <row r="141" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -17023,7 +16926,7 @@
       <c r="CM141" s="2"/>
       <c r="CN141" s="2"/>
     </row>
-    <row r="142" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -17115,7 +17018,7 @@
       <c r="CM142" s="2"/>
       <c r="CN142" s="2"/>
     </row>
-    <row r="143" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -17207,7 +17110,7 @@
       <c r="CM143" s="2"/>
       <c r="CN143" s="2"/>
     </row>
-    <row r="144" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -17299,7 +17202,7 @@
       <c r="CM144" s="2"/>
       <c r="CN144" s="2"/>
     </row>
-    <row r="145" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -17391,7 +17294,7 @@
       <c r="CM145" s="2"/>
       <c r="CN145" s="2"/>
     </row>
-    <row r="146" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -17483,7 +17386,7 @@
       <c r="CM146" s="2"/>
       <c r="CN146" s="2"/>
     </row>
-    <row r="147" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -17575,7 +17478,7 @@
       <c r="CM147" s="2"/>
       <c r="CN147" s="2"/>
     </row>
-    <row r="148" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -17667,7 +17570,7 @@
       <c r="CM148" s="2"/>
       <c r="CN148" s="2"/>
     </row>
-    <row r="149" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -17759,7 +17662,7 @@
       <c r="CM149" s="2"/>
       <c r="CN149" s="2"/>
     </row>
-    <row r="150" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -17851,7 +17754,7 @@
       <c r="CM150" s="2"/>
       <c r="CN150" s="2"/>
     </row>
-    <row r="151" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -17943,7 +17846,7 @@
       <c r="CM151" s="2"/>
       <c r="CN151" s="2"/>
     </row>
-    <row r="152" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -18035,7 +17938,7 @@
       <c r="CM152" s="2"/>
       <c r="CN152" s="2"/>
     </row>
-    <row r="153" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -18127,7 +18030,7 @@
       <c r="CM153" s="2"/>
       <c r="CN153" s="2"/>
     </row>
-    <row r="154" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -18219,7 +18122,7 @@
       <c r="CM154" s="2"/>
       <c r="CN154" s="2"/>
     </row>
-    <row r="155" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -18311,7 +18214,7 @@
       <c r="CM155" s="2"/>
       <c r="CN155" s="2"/>
     </row>
-    <row r="156" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -18403,7 +18306,7 @@
       <c r="CM156" s="2"/>
       <c r="CN156" s="2"/>
     </row>
-    <row r="157" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -18495,7 +18398,7 @@
       <c r="CM157" s="2"/>
       <c r="CN157" s="2"/>
     </row>
-    <row r="158" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -18587,7 +18490,7 @@
       <c r="CM158" s="2"/>
       <c r="CN158" s="2"/>
     </row>
-    <row r="159" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -18679,7 +18582,7 @@
       <c r="CM159" s="2"/>
       <c r="CN159" s="2"/>
     </row>
-    <row r="160" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -18771,7 +18674,7 @@
       <c r="CM160" s="2"/>
       <c r="CN160" s="2"/>
     </row>
-    <row r="161" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -18863,7 +18766,7 @@
       <c r="CM161" s="2"/>
       <c r="CN161" s="2"/>
     </row>
-    <row r="162" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -18955,7 +18858,7 @@
       <c r="CM162" s="2"/>
       <c r="CN162" s="2"/>
     </row>
-    <row r="163" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -19047,7 +18950,7 @@
       <c r="CM163" s="2"/>
       <c r="CN163" s="2"/>
     </row>
-    <row r="164" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -19139,7 +19042,7 @@
       <c r="CM164" s="2"/>
       <c r="CN164" s="2"/>
     </row>
-    <row r="165" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -19231,7 +19134,7 @@
       <c r="CM165" s="2"/>
       <c r="CN165" s="2"/>
     </row>
-    <row r="166" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -19323,7 +19226,7 @@
       <c r="CM166" s="2"/>
       <c r="CN166" s="2"/>
     </row>
-    <row r="167" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -19415,7 +19318,7 @@
       <c r="CM167" s="2"/>
       <c r="CN167" s="2"/>
     </row>
-    <row r="168" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -19507,7 +19410,7 @@
       <c r="CM168" s="2"/>
       <c r="CN168" s="2"/>
     </row>
-    <row r="169" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -19599,7 +19502,7 @@
       <c r="CM169" s="2"/>
       <c r="CN169" s="2"/>
     </row>
-    <row r="170" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -19691,7 +19594,7 @@
       <c r="CM170" s="2"/>
       <c r="CN170" s="2"/>
     </row>
-    <row r="171" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -19783,7 +19686,7 @@
       <c r="CM171" s="2"/>
       <c r="CN171" s="2"/>
     </row>
-    <row r="172" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -19875,7 +19778,7 @@
       <c r="CM172" s="2"/>
       <c r="CN172" s="2"/>
     </row>
-    <row r="173" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -19967,7 +19870,7 @@
       <c r="CM173" s="2"/>
       <c r="CN173" s="2"/>
     </row>
-    <row r="174" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -20059,7 +19962,7 @@
       <c r="CM174" s="2"/>
       <c r="CN174" s="2"/>
     </row>
-    <row r="175" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -20151,7 +20054,7 @@
       <c r="CM175" s="2"/>
       <c r="CN175" s="2"/>
     </row>
-    <row r="176" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -20243,7 +20146,7 @@
       <c r="CM176" s="2"/>
       <c r="CN176" s="2"/>
     </row>
-    <row r="177" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -20335,7 +20238,7 @@
       <c r="CM177" s="2"/>
       <c r="CN177" s="2"/>
     </row>
-    <row r="178" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -20427,7 +20330,7 @@
       <c r="CM178" s="2"/>
       <c r="CN178" s="2"/>
     </row>
-    <row r="179" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -20519,7 +20422,7 @@
       <c r="CM179" s="2"/>
       <c r="CN179" s="2"/>
     </row>
-    <row r="180" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -20611,7 +20514,7 @@
       <c r="CM180" s="2"/>
       <c r="CN180" s="2"/>
     </row>
-    <row r="181" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -20703,7 +20606,7 @@
       <c r="CM181" s="2"/>
       <c r="CN181" s="2"/>
     </row>
-    <row r="182" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -20795,7 +20698,7 @@
       <c r="CM182" s="2"/>
       <c r="CN182" s="2"/>
     </row>
-    <row r="183" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -20887,7 +20790,7 @@
       <c r="CM183" s="2"/>
       <c r="CN183" s="2"/>
     </row>
-    <row r="184" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -20979,7 +20882,7 @@
       <c r="CM184" s="2"/>
       <c r="CN184" s="2"/>
     </row>
-    <row r="185" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -21071,7 +20974,7 @@
       <c r="CM185" s="2"/>
       <c r="CN185" s="2"/>
     </row>
-    <row r="186" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -21163,7 +21066,7 @@
       <c r="CM186" s="2"/>
       <c r="CN186" s="2"/>
     </row>
-    <row r="187" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -21255,7 +21158,7 @@
       <c r="CM187" s="2"/>
       <c r="CN187" s="2"/>
     </row>
-    <row r="188" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -21347,7 +21250,7 @@
       <c r="CM188" s="2"/>
       <c r="CN188" s="2"/>
     </row>
-    <row r="189" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -21439,7 +21342,7 @@
       <c r="CM189" s="2"/>
       <c r="CN189" s="2"/>
     </row>
-    <row r="190" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -21531,7 +21434,7 @@
       <c r="CM190" s="2"/>
       <c r="CN190" s="2"/>
     </row>
-    <row r="191" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -21623,7 +21526,7 @@
       <c r="CM191" s="2"/>
       <c r="CN191" s="2"/>
     </row>
-    <row r="192" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -21715,7 +21618,7 @@
       <c r="CM192" s="2"/>
       <c r="CN192" s="2"/>
     </row>
-    <row r="193" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -21807,7 +21710,7 @@
       <c r="CM193" s="2"/>
       <c r="CN193" s="2"/>
     </row>
-    <row r="194" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -21899,7 +21802,7 @@
       <c r="CM194" s="2"/>
       <c r="CN194" s="2"/>
     </row>
-    <row r="195" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -21991,7 +21894,7 @@
       <c r="CM195" s="2"/>
       <c r="CN195" s="2"/>
     </row>
-    <row r="196" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -22083,7 +21986,7 @@
       <c r="CM196" s="2"/>
       <c r="CN196" s="2"/>
     </row>
-    <row r="197" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -22175,7 +22078,7 @@
       <c r="CM197" s="2"/>
       <c r="CN197" s="2"/>
     </row>
-    <row r="198" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -22267,7 +22170,7 @@
       <c r="CM198" s="2"/>
       <c r="CN198" s="2"/>
     </row>
-    <row r="199" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -22359,7 +22262,7 @@
       <c r="CM199" s="2"/>
       <c r="CN199" s="2"/>
     </row>
-    <row r="200" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -22451,7 +22354,7 @@
       <c r="CM200" s="2"/>
       <c r="CN200" s="2"/>
     </row>
-    <row r="201" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -22543,7 +22446,7 @@
       <c r="CM201" s="2"/>
       <c r="CN201" s="2"/>
     </row>
-    <row r="202" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -22635,7 +22538,7 @@
       <c r="CM202" s="2"/>
       <c r="CN202" s="2"/>
     </row>
-    <row r="203" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -22727,7 +22630,7 @@
       <c r="CM203" s="2"/>
       <c r="CN203" s="2"/>
     </row>
-    <row r="204" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -22819,7 +22722,7 @@
       <c r="CM204" s="2"/>
       <c r="CN204" s="2"/>
     </row>
-    <row r="205" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -22911,7 +22814,7 @@
       <c r="CM205" s="2"/>
       <c r="CN205" s="2"/>
     </row>
-    <row r="206" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -23003,7 +22906,7 @@
       <c r="CM206" s="2"/>
       <c r="CN206" s="2"/>
     </row>
-    <row r="207" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -23095,7 +22998,7 @@
       <c r="CM207" s="2"/>
       <c r="CN207" s="2"/>
     </row>
-    <row r="208" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -23187,7 +23090,7 @@
       <c r="CM208" s="2"/>
       <c r="CN208" s="2"/>
     </row>
-    <row r="209" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -23279,7 +23182,7 @@
       <c r="CM209" s="2"/>
       <c r="CN209" s="2"/>
     </row>
-    <row r="210" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -23371,7 +23274,7 @@
       <c r="CM210" s="2"/>
       <c r="CN210" s="2"/>
     </row>
-    <row r="211" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -23463,7 +23366,7 @@
       <c r="CM211" s="2"/>
       <c r="CN211" s="2"/>
     </row>
-    <row r="212" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -23555,7 +23458,7 @@
       <c r="CM212" s="2"/>
       <c r="CN212" s="2"/>
     </row>
-    <row r="213" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -23647,7 +23550,7 @@
       <c r="CM213" s="2"/>
       <c r="CN213" s="2"/>
     </row>
-    <row r="214" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -23739,7 +23642,7 @@
       <c r="CM214" s="2"/>
       <c r="CN214" s="2"/>
     </row>
-    <row r="215" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -23831,7 +23734,7 @@
       <c r="CM215" s="2"/>
       <c r="CN215" s="2"/>
     </row>
-    <row r="216" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -23923,7 +23826,7 @@
       <c r="CM216" s="2"/>
       <c r="CN216" s="2"/>
     </row>
-    <row r="217" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -24015,7 +23918,7 @@
       <c r="CM217" s="2"/>
       <c r="CN217" s="2"/>
     </row>
-    <row r="218" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -24107,7 +24010,7 @@
       <c r="CM218" s="2"/>
       <c r="CN218" s="2"/>
     </row>
-    <row r="219" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -24199,7 +24102,7 @@
       <c r="CM219" s="2"/>
       <c r="CN219" s="2"/>
     </row>
-    <row r="220" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -24291,7 +24194,7 @@
       <c r="CM220" s="2"/>
       <c r="CN220" s="2"/>
     </row>
-    <row r="221" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -24383,7 +24286,7 @@
       <c r="CM221" s="2"/>
       <c r="CN221" s="2"/>
     </row>
-    <row r="222" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -24475,7 +24378,7 @@
       <c r="CM222" s="2"/>
       <c r="CN222" s="2"/>
     </row>
-    <row r="223" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -24567,7 +24470,7 @@
       <c r="CM223" s="2"/>
       <c r="CN223" s="2"/>
     </row>
-    <row r="224" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -24659,7 +24562,7 @@
       <c r="CM224" s="2"/>
       <c r="CN224" s="2"/>
     </row>
-    <row r="225" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -24751,7 +24654,7 @@
       <c r="CM225" s="2"/>
       <c r="CN225" s="2"/>
     </row>
-    <row r="226" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -24843,7 +24746,7 @@
       <c r="CM226" s="2"/>
       <c r="CN226" s="2"/>
     </row>
-    <row r="227" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -24935,7 +24838,7 @@
       <c r="CM227" s="2"/>
       <c r="CN227" s="2"/>
     </row>
-    <row r="228" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -25027,7 +24930,7 @@
       <c r="CM228" s="2"/>
       <c r="CN228" s="2"/>
     </row>
-    <row r="229" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -25119,7 +25022,7 @@
       <c r="CM229" s="2"/>
       <c r="CN229" s="2"/>
     </row>
-    <row r="230" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -25211,7 +25114,7 @@
       <c r="CM230" s="2"/>
       <c r="CN230" s="2"/>
     </row>
-    <row r="231" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -25303,7 +25206,7 @@
       <c r="CM231" s="2"/>
       <c r="CN231" s="2"/>
     </row>
-    <row r="232" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -25395,7 +25298,7 @@
       <c r="CM232" s="2"/>
       <c r="CN232" s="2"/>
     </row>
-    <row r="233" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -25487,7 +25390,7 @@
       <c r="CM233" s="2"/>
       <c r="CN233" s="2"/>
     </row>
-    <row r="234" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -25579,7 +25482,7 @@
       <c r="CM234" s="2"/>
       <c r="CN234" s="2"/>
     </row>
-    <row r="235" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -25671,7 +25574,7 @@
       <c r="CM235" s="2"/>
       <c r="CN235" s="2"/>
     </row>
-    <row r="236" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -25763,7 +25666,7 @@
       <c r="CM236" s="2"/>
       <c r="CN236" s="2"/>
     </row>
-    <row r="237" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -25855,7 +25758,7 @@
       <c r="CM237" s="2"/>
       <c r="CN237" s="2"/>
     </row>
-    <row r="238" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -25947,7 +25850,7 @@
       <c r="CM238" s="2"/>
       <c r="CN238" s="2"/>
     </row>
-    <row r="239" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -26039,7 +25942,7 @@
       <c r="CM239" s="2"/>
       <c r="CN239" s="2"/>
     </row>
-    <row r="240" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -26131,7 +26034,7 @@
       <c r="CM240" s="2"/>
       <c r="CN240" s="2"/>
     </row>
-    <row r="241" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -26223,7 +26126,7 @@
       <c r="CM241" s="2"/>
       <c r="CN241" s="2"/>
     </row>
-    <row r="242" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -26315,7 +26218,7 @@
       <c r="CM242" s="2"/>
       <c r="CN242" s="2"/>
     </row>
-    <row r="243" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -26407,7 +26310,7 @@
       <c r="CM243" s="2"/>
       <c r="CN243" s="2"/>
     </row>
-    <row r="244" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -26499,7 +26402,7 @@
       <c r="CM244" s="2"/>
       <c r="CN244" s="2"/>
     </row>
-    <row r="245" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -26591,7 +26494,7 @@
       <c r="CM245" s="2"/>
       <c r="CN245" s="2"/>
     </row>
-    <row r="246" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -26683,7 +26586,7 @@
       <c r="CM246" s="2"/>
       <c r="CN246" s="2"/>
     </row>
-    <row r="247" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -26775,7 +26678,7 @@
       <c r="CM247" s="2"/>
       <c r="CN247" s="2"/>
     </row>
-    <row r="248" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -26867,7 +26770,7 @@
       <c r="CM248" s="2"/>
       <c r="CN248" s="2"/>
     </row>
-    <row r="249" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -26959,7 +26862,7 @@
       <c r="CM249" s="2"/>
       <c r="CN249" s="2"/>
     </row>
-    <row r="250" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -27051,7 +26954,7 @@
       <c r="CM250" s="2"/>
       <c r="CN250" s="2"/>
     </row>
-    <row r="251" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -27143,7 +27046,7 @@
       <c r="CM251" s="2"/>
       <c r="CN251" s="2"/>
     </row>
-    <row r="252" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -27235,7 +27138,7 @@
       <c r="CM252" s="2"/>
       <c r="CN252" s="2"/>
     </row>
-    <row r="253" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -27327,7 +27230,7 @@
       <c r="CM253" s="2"/>
       <c r="CN253" s="2"/>
     </row>
-    <row r="254" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -27419,7 +27322,7 @@
       <c r="CM254" s="2"/>
       <c r="CN254" s="2"/>
     </row>
-    <row r="255" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -27511,7 +27414,7 @@
       <c r="CM255" s="2"/>
       <c r="CN255" s="2"/>
     </row>
-    <row r="256" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -27603,7 +27506,7 @@
       <c r="CM256" s="2"/>
       <c r="CN256" s="2"/>
     </row>
-    <row r="257" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -27695,7 +27598,7 @@
       <c r="CM257" s="2"/>
       <c r="CN257" s="2"/>
     </row>
-    <row r="258" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -27787,7 +27690,7 @@
       <c r="CM258" s="2"/>
       <c r="CN258" s="2"/>
     </row>
-    <row r="259" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -27879,7 +27782,7 @@
       <c r="CM259" s="2"/>
       <c r="CN259" s="2"/>
     </row>
-    <row r="260" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -27971,7 +27874,7 @@
       <c r="CM260" s="2"/>
       <c r="CN260" s="2"/>
     </row>
-    <row r="261" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -28063,7 +27966,7 @@
       <c r="CM261" s="2"/>
       <c r="CN261" s="2"/>
     </row>
-    <row r="262" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -28155,7 +28058,7 @@
       <c r="CM262" s="2"/>
       <c r="CN262" s="2"/>
     </row>
-    <row r="263" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -28247,7 +28150,7 @@
       <c r="CM263" s="2"/>
       <c r="CN263" s="2"/>
     </row>
-    <row r="264" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -28339,7 +28242,7 @@
       <c r="CM264" s="2"/>
       <c r="CN264" s="2"/>
     </row>
-    <row r="265" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -28431,7 +28334,7 @@
       <c r="CM265" s="2"/>
       <c r="CN265" s="2"/>
     </row>
-    <row r="266" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -28523,7 +28426,7 @@
       <c r="CM266" s="2"/>
       <c r="CN266" s="2"/>
     </row>
-    <row r="267" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -28615,7 +28518,7 @@
       <c r="CM267" s="2"/>
       <c r="CN267" s="2"/>
     </row>
-    <row r="268" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -28707,7 +28610,7 @@
       <c r="CM268" s="2"/>
       <c r="CN268" s="2"/>
     </row>
-    <row r="269" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -28799,7 +28702,7 @@
       <c r="CM269" s="2"/>
       <c r="CN269" s="2"/>
     </row>
-    <row r="270" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -28891,7 +28794,7 @@
       <c r="CM270" s="2"/>
       <c r="CN270" s="2"/>
     </row>
-    <row r="271" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -28983,7 +28886,7 @@
       <c r="CM271" s="2"/>
       <c r="CN271" s="2"/>
     </row>
-    <row r="272" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -29075,7 +28978,7 @@
       <c r="CM272" s="2"/>
       <c r="CN272" s="2"/>
     </row>
-    <row r="273" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -29167,7 +29070,7 @@
       <c r="CM273" s="2"/>
       <c r="CN273" s="2"/>
     </row>
-    <row r="274" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -29259,7 +29162,7 @@
       <c r="CM274" s="2"/>
       <c r="CN274" s="2"/>
     </row>
-    <row r="275" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -29351,7 +29254,7 @@
       <c r="CM275" s="2"/>
       <c r="CN275" s="2"/>
     </row>
-    <row r="276" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -29443,7 +29346,7 @@
       <c r="CM276" s="2"/>
       <c r="CN276" s="2"/>
     </row>
-    <row r="277" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -29535,7 +29438,7 @@
       <c r="CM277" s="2"/>
       <c r="CN277" s="2"/>
     </row>
-    <row r="278" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -29627,7 +29530,7 @@
       <c r="CM278" s="2"/>
       <c r="CN278" s="2"/>
     </row>
-    <row r="279" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -29719,7 +29622,7 @@
       <c r="CM279" s="2"/>
       <c r="CN279" s="2"/>
     </row>
-    <row r="280" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -29811,7 +29714,7 @@
       <c r="CM280" s="2"/>
       <c r="CN280" s="2"/>
     </row>
-    <row r="281" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -29903,7 +29806,7 @@
       <c r="CM281" s="2"/>
       <c r="CN281" s="2"/>
     </row>
-    <row r="282" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -29995,7 +29898,7 @@
       <c r="CM282" s="2"/>
       <c r="CN282" s="2"/>
     </row>
-    <row r="283" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -30087,7 +29990,7 @@
       <c r="CM283" s="2"/>
       <c r="CN283" s="2"/>
     </row>
-    <row r="284" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -30179,7 +30082,7 @@
       <c r="CM284" s="2"/>
       <c r="CN284" s="2"/>
     </row>
-    <row r="285" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -30271,7 +30174,7 @@
       <c r="CM285" s="2"/>
       <c r="CN285" s="2"/>
     </row>
-    <row r="286" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -30363,7 +30266,7 @@
       <c r="CM286" s="2"/>
       <c r="CN286" s="2"/>
     </row>
-    <row r="287" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -30455,7 +30358,7 @@
       <c r="CM287" s="2"/>
       <c r="CN287" s="2"/>
     </row>
-    <row r="288" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -30547,7 +30450,7 @@
       <c r="CM288" s="2"/>
       <c r="CN288" s="2"/>
     </row>
-    <row r="289" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -30639,7 +30542,7 @@
       <c r="CM289" s="2"/>
       <c r="CN289" s="2"/>
     </row>
-    <row r="290" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -30731,7 +30634,7 @@
       <c r="CM290" s="2"/>
       <c r="CN290" s="2"/>
     </row>
-    <row r="291" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -30823,7 +30726,7 @@
       <c r="CM291" s="2"/>
       <c r="CN291" s="2"/>
     </row>
-    <row r="292" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -30915,7 +30818,7 @@
       <c r="CM292" s="2"/>
       <c r="CN292" s="2"/>
     </row>
-    <row r="293" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -31007,7 +30910,7 @@
       <c r="CM293" s="2"/>
       <c r="CN293" s="2"/>
     </row>
-    <row r="294" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -31099,7 +31002,7 @@
       <c r="CM294" s="2"/>
       <c r="CN294" s="2"/>
     </row>
-    <row r="295" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -31191,7 +31094,7 @@
       <c r="CM295" s="2"/>
       <c r="CN295" s="2"/>
     </row>
-    <row r="296" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -31283,7 +31186,7 @@
       <c r="CM296" s="2"/>
       <c r="CN296" s="2"/>
     </row>
-    <row r="297" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -31375,7 +31278,7 @@
       <c r="CM297" s="2"/>
       <c r="CN297" s="2"/>
     </row>
-    <row r="298" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -31467,7 +31370,7 @@
       <c r="CM298" s="2"/>
       <c r="CN298" s="2"/>
     </row>
-    <row r="299" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -31559,7 +31462,7 @@
       <c r="CM299" s="2"/>
       <c r="CN299" s="2"/>
     </row>
-    <row r="300" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -31651,7 +31554,7 @@
       <c r="CM300" s="2"/>
       <c r="CN300" s="2"/>
     </row>
-    <row r="301" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -31743,7 +31646,7 @@
       <c r="CM301" s="2"/>
       <c r="CN301" s="2"/>
     </row>
-    <row r="302" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -31835,7 +31738,7 @@
       <c r="CM302" s="2"/>
       <c r="CN302" s="2"/>
     </row>
-    <row r="303" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -31927,7 +31830,7 @@
       <c r="CM303" s="2"/>
       <c r="CN303" s="2"/>
     </row>
-    <row r="304" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -32019,7 +31922,7 @@
       <c r="CM304" s="2"/>
       <c r="CN304" s="2"/>
     </row>
-    <row r="305" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -32111,7 +32014,7 @@
       <c r="CM305" s="2"/>
       <c r="CN305" s="2"/>
     </row>
-    <row r="306" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -32203,7 +32106,7 @@
       <c r="CM306" s="2"/>
       <c r="CN306" s="2"/>
     </row>
-    <row r="307" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -32295,7 +32198,7 @@
       <c r="CM307" s="2"/>
       <c r="CN307" s="2"/>
     </row>
-    <row r="308" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -32387,7 +32290,7 @@
       <c r="CM308" s="2"/>
       <c r="CN308" s="2"/>
     </row>
-    <row r="309" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -32479,7 +32382,7 @@
       <c r="CM309" s="2"/>
       <c r="CN309" s="2"/>
     </row>
-    <row r="310" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -32571,7 +32474,7 @@
       <c r="CM310" s="2"/>
       <c r="CN310" s="2"/>
     </row>
-    <row r="311" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -32663,7 +32566,7 @@
       <c r="CM311" s="2"/>
       <c r="CN311" s="2"/>
     </row>
-    <row r="312" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -32755,7 +32658,7 @@
       <c r="CM312" s="2"/>
       <c r="CN312" s="2"/>
     </row>
-    <row r="313" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -32847,7 +32750,7 @@
       <c r="CM313" s="2"/>
       <c r="CN313" s="2"/>
     </row>
-    <row r="314" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -32939,7 +32842,7 @@
       <c r="CM314" s="2"/>
       <c r="CN314" s="2"/>
     </row>
-    <row r="315" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -33031,7 +32934,7 @@
       <c r="CM315" s="2"/>
       <c r="CN315" s="2"/>
     </row>
-    <row r="316" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -33123,7 +33026,7 @@
       <c r="CM316" s="2"/>
       <c r="CN316" s="2"/>
     </row>
-    <row r="317" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -33215,7 +33118,7 @@
       <c r="CM317" s="2"/>
       <c r="CN317" s="2"/>
     </row>
-    <row r="318" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -33307,7 +33210,7 @@
       <c r="CM318" s="2"/>
       <c r="CN318" s="2"/>
     </row>
-    <row r="319" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -33399,7 +33302,7 @@
       <c r="CM319" s="2"/>
       <c r="CN319" s="2"/>
     </row>
-    <row r="320" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -33491,7 +33394,7 @@
       <c r="CM320" s="2"/>
       <c r="CN320" s="2"/>
     </row>
-    <row r="321" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -33583,7 +33486,7 @@
       <c r="CM321" s="2"/>
       <c r="CN321" s="2"/>
     </row>
-    <row r="322" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -33675,7 +33578,7 @@
       <c r="CM322" s="2"/>
       <c r="CN322" s="2"/>
     </row>
-    <row r="323" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -33767,7 +33670,7 @@
       <c r="CM323" s="2"/>
       <c r="CN323" s="2"/>
     </row>
-    <row r="324" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -33859,7 +33762,7 @@
       <c r="CM324" s="2"/>
       <c r="CN324" s="2"/>
     </row>
-    <row r="325" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -33951,7 +33854,7 @@
       <c r="CM325" s="2"/>
       <c r="CN325" s="2"/>
     </row>
-    <row r="326" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -34043,7 +33946,7 @@
       <c r="CM326" s="2"/>
       <c r="CN326" s="2"/>
     </row>
-    <row r="327" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -34135,7 +34038,7 @@
       <c r="CM327" s="2"/>
       <c r="CN327" s="2"/>
     </row>
-    <row r="328" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -34227,7 +34130,7 @@
       <c r="CM328" s="2"/>
       <c r="CN328" s="2"/>
     </row>
-    <row r="329" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -34319,7 +34222,7 @@
       <c r="CM329" s="2"/>
       <c r="CN329" s="2"/>
     </row>
-    <row r="330" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -34411,7 +34314,7 @@
       <c r="CM330" s="2"/>
       <c r="CN330" s="2"/>
     </row>
-    <row r="331" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -34503,7 +34406,7 @@
       <c r="CM331" s="2"/>
       <c r="CN331" s="2"/>
     </row>
-    <row r="332" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -34595,7 +34498,7 @@
       <c r="CM332" s="2"/>
       <c r="CN332" s="2"/>
     </row>
-    <row r="333" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -34687,7 +34590,7 @@
       <c r="CM333" s="2"/>
       <c r="CN333" s="2"/>
     </row>
-    <row r="334" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -34779,7 +34682,7 @@
       <c r="CM334" s="2"/>
       <c r="CN334" s="2"/>
     </row>
-    <row r="335" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -34871,7 +34774,7 @@
       <c r="CM335" s="2"/>
       <c r="CN335" s="2"/>
     </row>
-    <row r="336" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -34963,7 +34866,7 @@
       <c r="CM336" s="2"/>
       <c r="CN336" s="2"/>
     </row>
-    <row r="337" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -35055,7 +34958,7 @@
       <c r="CM337" s="2"/>
       <c r="CN337" s="2"/>
     </row>
-    <row r="338" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -35147,7 +35050,7 @@
       <c r="CM338" s="2"/>
       <c r="CN338" s="2"/>
     </row>
-    <row r="339" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -35239,7 +35142,7 @@
       <c r="CM339" s="2"/>
       <c r="CN339" s="2"/>
     </row>
-    <row r="340" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -35331,7 +35234,7 @@
       <c r="CM340" s="2"/>
       <c r="CN340" s="2"/>
     </row>
-    <row r="341" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -35423,7 +35326,7 @@
       <c r="CM341" s="2"/>
       <c r="CN341" s="2"/>
     </row>
-    <row r="342" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -35515,7 +35418,7 @@
       <c r="CM342" s="2"/>
       <c r="CN342" s="2"/>
     </row>
-    <row r="343" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -35607,7 +35510,7 @@
       <c r="CM343" s="2"/>
       <c r="CN343" s="2"/>
     </row>
-    <row r="344" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -35699,7 +35602,7 @@
       <c r="CM344" s="2"/>
       <c r="CN344" s="2"/>
     </row>
-    <row r="345" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -35791,7 +35694,7 @@
       <c r="CM345" s="2"/>
       <c r="CN345" s="2"/>
     </row>
-    <row r="346" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -35883,7 +35786,7 @@
       <c r="CM346" s="2"/>
       <c r="CN346" s="2"/>
     </row>
-    <row r="347" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -35975,7 +35878,7 @@
       <c r="CM347" s="2"/>
       <c r="CN347" s="2"/>
     </row>
-    <row r="348" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -36067,7 +35970,7 @@
       <c r="CM348" s="2"/>
       <c r="CN348" s="2"/>
     </row>
-    <row r="349" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -36159,7 +36062,7 @@
       <c r="CM349" s="2"/>
       <c r="CN349" s="2"/>
     </row>
-    <row r="350" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -36251,7 +36154,7 @@
       <c r="CM350" s="2"/>
       <c r="CN350" s="2"/>
     </row>
-    <row r="351" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -36343,7 +36246,7 @@
       <c r="CM351" s="2"/>
       <c r="CN351" s="2"/>
     </row>
-    <row r="352" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -36435,7 +36338,7 @@
       <c r="CM352" s="2"/>
       <c r="CN352" s="2"/>
     </row>
-    <row r="353" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -36527,7 +36430,7 @@
       <c r="CM353" s="2"/>
       <c r="CN353" s="2"/>
     </row>
-    <row r="354" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -36619,7 +36522,7 @@
       <c r="CM354" s="2"/>
       <c r="CN354" s="2"/>
     </row>
-    <row r="355" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -36711,7 +36614,7 @@
       <c r="CM355" s="2"/>
       <c r="CN355" s="2"/>
     </row>
-    <row r="356" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -36803,7 +36706,7 @@
       <c r="CM356" s="2"/>
       <c r="CN356" s="2"/>
     </row>
-    <row r="357" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -36895,7 +36798,7 @@
       <c r="CM357" s="2"/>
       <c r="CN357" s="2"/>
     </row>
-    <row r="358" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -36987,7 +36890,7 @@
       <c r="CM358" s="2"/>
       <c r="CN358" s="2"/>
     </row>
-    <row r="359" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -37079,7 +36982,7 @@
       <c r="CM359" s="2"/>
       <c r="CN359" s="2"/>
     </row>
-    <row r="360" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -37171,7 +37074,7 @@
       <c r="CM360" s="2"/>
       <c r="CN360" s="2"/>
     </row>
-    <row r="361" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -37263,7 +37166,7 @@
       <c r="CM361" s="2"/>
       <c r="CN361" s="2"/>
     </row>
-    <row r="362" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -37355,7 +37258,7 @@
       <c r="CM362" s="2"/>
       <c r="CN362" s="2"/>
     </row>
-    <row r="363" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -37447,7 +37350,7 @@
       <c r="CM363" s="2"/>
       <c r="CN363" s="2"/>
     </row>
-    <row r="364" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -37539,7 +37442,7 @@
       <c r="CM364" s="2"/>
       <c r="CN364" s="2"/>
     </row>
-    <row r="365" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -37631,7 +37534,7 @@
       <c r="CM365" s="2"/>
       <c r="CN365" s="2"/>
     </row>
-    <row r="366" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -37723,7 +37626,7 @@
       <c r="CM366" s="2"/>
       <c r="CN366" s="2"/>
     </row>
-    <row r="367" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -37815,7 +37718,7 @@
       <c r="CM367" s="2"/>
       <c r="CN367" s="2"/>
     </row>
-    <row r="368" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -37907,7 +37810,7 @@
       <c r="CM368" s="2"/>
       <c r="CN368" s="2"/>
     </row>
-    <row r="369" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -37999,7 +37902,7 @@
       <c r="CM369" s="2"/>
       <c r="CN369" s="2"/>
     </row>
-    <row r="370" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -38091,7 +37994,7 @@
       <c r="CM370" s="2"/>
       <c r="CN370" s="2"/>
     </row>
-    <row r="371" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -38183,7 +38086,7 @@
       <c r="CM371" s="2"/>
       <c r="CN371" s="2"/>
     </row>
-    <row r="372" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -38275,7 +38178,7 @@
       <c r="CM372" s="2"/>
       <c r="CN372" s="2"/>
     </row>
-    <row r="373" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -38367,7 +38270,7 @@
       <c r="CM373" s="2"/>
       <c r="CN373" s="2"/>
     </row>
-    <row r="374" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -38459,7 +38362,7 @@
       <c r="CM374" s="2"/>
       <c r="CN374" s="2"/>
     </row>
-    <row r="375" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -38551,7 +38454,7 @@
       <c r="CM375" s="2"/>
       <c r="CN375" s="2"/>
     </row>
-    <row r="376" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -38643,7 +38546,7 @@
       <c r="CM376" s="2"/>
       <c r="CN376" s="2"/>
     </row>
-    <row r="377" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -38735,7 +38638,7 @@
       <c r="CM377" s="2"/>
       <c r="CN377" s="2"/>
     </row>
-    <row r="378" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -38827,7 +38730,7 @@
       <c r="CM378" s="2"/>
       <c r="CN378" s="2"/>
     </row>
-    <row r="379" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -38919,7 +38822,7 @@
       <c r="CM379" s="2"/>
       <c r="CN379" s="2"/>
     </row>
-    <row r="380" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -39011,7 +38914,7 @@
       <c r="CM380" s="2"/>
       <c r="CN380" s="2"/>
     </row>
-    <row r="381" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -39103,7 +39006,7 @@
       <c r="CM381" s="2"/>
       <c r="CN381" s="2"/>
     </row>
-    <row r="382" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -39195,7 +39098,7 @@
       <c r="CM382" s="2"/>
       <c r="CN382" s="2"/>
     </row>
-    <row r="383" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -39287,7 +39190,7 @@
       <c r="CM383" s="2"/>
       <c r="CN383" s="2"/>
     </row>
-    <row r="384" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -39379,7 +39282,7 @@
       <c r="CM384" s="2"/>
       <c r="CN384" s="2"/>
     </row>
-    <row r="385" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -39471,7 +39374,7 @@
       <c r="CM385" s="2"/>
       <c r="CN385" s="2"/>
     </row>
-    <row r="386" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -39563,7 +39466,7 @@
       <c r="CM386" s="2"/>
       <c r="CN386" s="2"/>
     </row>
-    <row r="387" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -39655,7 +39558,7 @@
       <c r="CM387" s="2"/>
       <c r="CN387" s="2"/>
     </row>
-    <row r="388" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -39747,7 +39650,7 @@
       <c r="CM388" s="2"/>
       <c r="CN388" s="2"/>
     </row>
-    <row r="389" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -39839,7 +39742,7 @@
       <c r="CM389" s="2"/>
       <c r="CN389" s="2"/>
     </row>
-    <row r="390" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -39931,7 +39834,7 @@
       <c r="CM390" s="2"/>
       <c r="CN390" s="2"/>
     </row>
-    <row r="391" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -40023,7 +39926,7 @@
       <c r="CM391" s="2"/>
       <c r="CN391" s="2"/>
     </row>
-    <row r="392" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -40115,7 +40018,7 @@
       <c r="CM392" s="2"/>
       <c r="CN392" s="2"/>
     </row>
-    <row r="393" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -40207,7 +40110,7 @@
       <c r="CM393" s="2"/>
       <c r="CN393" s="2"/>
     </row>
-    <row r="394" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -40299,7 +40202,7 @@
       <c r="CM394" s="2"/>
       <c r="CN394" s="2"/>
     </row>
-    <row r="395" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -40391,7 +40294,7 @@
       <c r="CM395" s="2"/>
       <c r="CN395" s="2"/>
     </row>
-    <row r="396" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -40483,7 +40386,7 @@
       <c r="CM396" s="2"/>
       <c r="CN396" s="2"/>
     </row>
-    <row r="397" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -40575,7 +40478,7 @@
       <c r="CM397" s="2"/>
       <c r="CN397" s="2"/>
     </row>
-    <row r="398" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -40667,7 +40570,7 @@
       <c r="CM398" s="2"/>
       <c r="CN398" s="2"/>
     </row>
-    <row r="399" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -40759,7 +40662,7 @@
       <c r="CM399" s="2"/>
       <c r="CN399" s="2"/>
     </row>
-    <row r="400" spans="3:92" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:92" x14ac:dyDescent="0.25">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -40933,6 +40836,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010083C51B3A6863BB4086AAB9D84DF721A3" ma:contentTypeVersion="9" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9d92303bd8f83ad3ed572bd327ba273d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="17d0a144-7218-432a-80c1-1473a2ac0f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e272e23039cec0e41a69c8e3deb1ff81" ns3:_="">
     <xsd:import namespace="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
@@ -41108,24 +41028,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="17d0a144-7218-432a-80c1-1473a2ac0f84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE2584E-1495-47FC-B560-4437F91C3A10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41141,28 +41068,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F67E43-074E-4C0F-B170-E53BCA717C8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B51BD707-A63C-4C12-A5D3-024A5FAE9E8F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="17d0a144-7218-432a-80c1-1473a2ac0f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>